--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="636" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="427" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="54">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>T12</t>
   </si>
   <si>
     <t>?</t>
@@ -515,9 +518,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.71764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.6862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -669,46 +672,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A14" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="L44" activeCellId="0" pane="bottomLeft" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1552,10 +1553,56 @@
       </c>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="7" t="s">
+      <c r="AE26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="28">
+      <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF26" s="15"/>
+      <c r="B28" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="A29" s="22"/>
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1573,45 +1620,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A47" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE63" activeCellId="0" pane="bottomLeft" sqref="AE63"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2378,7 +2423,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -3424,14 +3469,60 @@
       <c r="Z62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA62" s="7"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="7"/>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="7" t="s">
+      <c r="AA62" s="18"/>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="64">
+      <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF62" s="15"/>
+      <c r="B64" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="A65" s="22"/>
+      <c r="B65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3453,44 +3544,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A17" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE34" activeCellId="0" pane="bottomLeft" sqref="AE34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.03137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.88627450980392"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.91372549019608"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4227,11 +4316,11 @@
       <c r="S27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>24</v>
+      <c r="T27" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="V27" s="7" t="n">
         <v>1</v>
@@ -4559,10 +4648,54 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="7" t="s">
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF33" s="15"/>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="A36" s="22"/>
+      <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4584,44 +4717,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A11" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE28" activeCellId="0" pane="bottomLeft" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.03137254901961"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5249,7 +5380,7 @@
         <v>35</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -5485,10 +5616,56 @@
       </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7" t="s">
+      <c r="AE27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF27" s="15"/>
+      <c r="B29" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="22"/>
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5506,45 +5683,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A59" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE72" activeCellId="0" pane="bottomLeft" sqref="AE72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5685,13 +5860,13 @@
         <v>5</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
@@ -6368,7 +6543,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -7278,7 +7453,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -7329,7 +7504,7 @@
         <v>34</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB70" s="5" t="n">
         <v>21</v>
@@ -7407,10 +7582,54 @@
         <v>2</v>
       </c>
       <c r="AD71" s="7"/>
-      <c r="AE71" s="7" t="s">
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="73">
+      <c r="A73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF71" s="15"/>
+      <c r="B73" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+      <c r="A74" s="22"/>
+      <c r="B74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7434,46 +7653,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A53" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE69" activeCellId="0" pane="bottomLeft" sqref="AE69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7612,7 +7829,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
@@ -8282,7 +8499,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -9033,7 +9250,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD64" s="5" t="n">
         <v>14</v>
@@ -9141,7 +9358,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -9192,7 +9409,7 @@
         <v>34</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB67" s="5" t="n">
         <v>39</v>
@@ -9264,10 +9481,54 @@
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
-      <c r="AE68" s="7" t="s">
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="70">
+      <c r="A70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF68" s="15"/>
+      <c r="B70" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+      <c r="A71" s="22"/>
+      <c r="B71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9290,44 +9551,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A8" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE26" activeCellId="0" pane="bottomLeft" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9879,7 +10138,7 @@
         <v>51</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O21" s="5" t="n">
         <v>26</v>
@@ -10163,10 +10422,54 @@
       <c r="AD25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE25" s="7" t="s">
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="27">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF25" s="15"/>
+      <c r="B27" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="22"/>
+      <c r="B28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10184,47 +10487,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A26" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE37" activeCellId="0" pane="bottomLeft" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.88627450980392"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.91372549019608"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10324,7 +10625,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -11565,10 +11866,57 @@
       <c r="AD36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE36" s="7" t="s">
+      <c r="AE36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF36" s="28"/>
+      <c r="B38" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="A39" s="22"/>
+      <c r="B39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11590,41 +11938,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A35" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE46" activeCellId="0" pane="bottomLeft" sqref="AE46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11860,7 +12206,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -12020,7 +12366,7 @@
         <v>18</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -12839,19 +13185,63 @@
       <c r="Y45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
       <c r="AC45" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AD45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE45" s="7" t="s">
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
+      <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF45" s="15"/>
+      <c r="B47" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="A48" s="22"/>
+      <c r="B48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12872,42 +13262,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF66"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A50" xSplit="0" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="AE67" activeCellId="0" pane="bottomLeft" sqref="AE67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.30588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.30980392156863"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.16078431372549"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.72941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.32156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.75686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13013,7 +13401,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -13058,13 +13446,13 @@
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
@@ -13419,7 +13807,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -13757,7 +14145,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
@@ -13923,7 +14311,7 @@
         <v>18</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
@@ -14745,10 +15133,54 @@
       <c r="AD66" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE66" s="7" t="s">
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="68">
+      <c r="A68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF66" s="15"/>
+      <c r="B68" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="A69" s="22"/>
+      <c r="B69" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="427" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="460" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -75,31 +75,13 @@
     <t>'090</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>T2</t>
-  </si>
-  <si>
-    <t>TET</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>DATA</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
     <t>T4</t>
-  </si>
-  <si>
-    <t>10d</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>T5</t>
@@ -120,6 +102,30 @@
     <t>T10</t>
   </si>
   <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12-2012</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>10d</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>'03</t>
   </si>
   <si>
@@ -133,9 +139,6 @@
   </si>
   <si>
     <t>'06</t>
-  </si>
-  <si>
-    <t>T11</t>
   </si>
   <si>
     <t>'05</t>
@@ -172,9 +175,6 @@
   </si>
   <si>
     <t>07</t>
-  </si>
-  <si>
-    <t>T12-2012</t>
   </si>
   <si>
     <t>;08</t>
@@ -272,14 +272,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB515"/>
-        <bgColor rgb="00FF9900"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00993300"/>
+        <fgColor rgb="00FFB515"/>
+        <bgColor rgb="00FF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -335,7 +335,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -361,10 +361,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
@@ -373,11 +373,23 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -392,9 +404,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
@@ -422,7 +431,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
@@ -513,14 +522,14 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.76470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.956862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.5019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -674,42 +683,42 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C29" activeCellId="0" pane="topLeft" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -809,7 +818,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -872,11 +881,11 @@
       <c r="AE4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -927,10 +936,10 @@
       <c r="Y7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="7" t="n">
         <v>1</v>
       </c>
@@ -1034,7 +1043,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -1042,10 +1051,10 @@
       <c r="B11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="7" t="n">
         <v>1</v>
       </c>
@@ -1094,18 +1103,18 @@
       <c r="AD11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="6"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="7" t="n">
         <v>1</v>
       </c>
@@ -1115,10 +1124,10 @@
       <c r="F14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="7" t="n">
         <v>1</v>
       </c>
@@ -1132,10 +1141,10 @@
       <c r="O14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="7" t="n">
         <v>1</v>
       </c>
@@ -1164,15 +1173,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="10" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="13"/>
@@ -1190,42 +1199,42 @@
       <c r="L17" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="M17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="9" t="n">
+      <c r="M17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AE17" s="7"/>
@@ -1233,12 +1242,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF19" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF19" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="n">
         <v>1</v>
@@ -1284,10 +1293,10 @@
       <c r="V20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
       <c r="AA20" s="7" t="n">
         <v>1</v>
       </c>
@@ -1303,10 +1312,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
       <c r="Z22" s="5" t="n">
         <v>44</v>
       </c>
@@ -1330,7 +1339,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="n">
         <v>1</v>
@@ -1394,7 +1403,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>62</v>
@@ -1447,14 +1456,14 @@
       <c r="R25" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="S25" s="24" t="n">
+      <c r="S25" s="27" t="n">
         <v>98</v>
       </c>
       <c r="T25" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24" t="n">
+      <c r="U25" s="27"/>
+      <c r="V25" s="27" t="n">
         <v>77</v>
       </c>
       <c r="W25" s="5" t="n">
@@ -1483,7 +1492,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="22"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="13" t="n">
         <v>6</v>
       </c>
@@ -1556,32 +1565,35 @@
       <c r="AE26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF26" s="15"/>
+      <c r="AF26" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="C28" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
-      <c r="A29" s="22"/>
-      <c r="B29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -1600,9 +1612,9 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1622,41 +1634,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C65" activeCellId="0" pane="topLeft" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.74509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1755,8 +1767,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="s">
-        <v>21</v>
+      <c r="A2" s="36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -1824,14 +1836,14 @@
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
-      <c r="A5" s="33" t="s">
-        <v>22</v>
+      <c r="A5" s="36" t="s">
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -1904,11 +1916,11 @@
         <v>1</v>
       </c>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="15"/>
+      <c r="AF6" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
-      <c r="A8" s="33" t="s">
-        <v>25</v>
+      <c r="A8" s="36" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -1929,10 +1941,10 @@
       <c r="I9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="7" t="n">
         <v>1</v>
       </c>
@@ -1986,8 +1998,8 @@
       <c r="AF9" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
-      <c r="A11" s="33" t="s">
-        <v>26</v>
+      <c r="A11" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -2001,10 +2013,10 @@
       <c r="D12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="7" t="n">
         <v>1</v>
       </c>
@@ -2050,11 +2062,11 @@
         <v>0</v>
       </c>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="15"/>
+      <c r="AF12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
-      <c r="A14" s="33" t="s">
-        <v>27</v>
+      <c r="A14" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -2140,8 +2152,8 @@
       <c r="AF15" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
-      <c r="A17" s="33" t="s">
-        <v>28</v>
+      <c r="A17" s="36" t="s">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -2163,10 +2175,10 @@
       <c r="J18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="7" t="n">
         <v>1</v>
       </c>
@@ -2184,25 +2196,25 @@
       <c r="U18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
       <c r="Z18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
       <c r="AE18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AF18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
-      <c r="A20" s="33" t="s">
-        <v>29</v>
+      <c r="A20" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -2263,11 +2275,11 @@
         <v>1</v>
       </c>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="15"/>
+      <c r="AF21" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
-      <c r="A23" s="33" t="s">
-        <v>30</v>
+      <c r="A23" s="36" t="s">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -2351,8 +2363,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
-      <c r="A26" s="33" t="s">
-        <v>36</v>
+      <c r="A26" s="36" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -2419,11 +2431,11 @@
       <c r="AE27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AF27" s="15"/>
+      <c r="AF27" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
-      <c r="A29" s="33" t="s">
-        <v>47</v>
+      <c r="A29" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -2481,10 +2493,10 @@
       <c r="X30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
       <c r="AC30" s="7" t="n">
         <v>1</v>
       </c>
@@ -2494,18 +2506,18 @@
       <c r="AE30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" s="21"/>
+      <c r="AF30" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
-      <c r="A32" s="33" t="s">
-        <v>16</v>
+      <c r="A32" s="36" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="6"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="7" t="n">
         <v>1</v>
       </c>
@@ -2569,7 +2581,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="36">
@@ -2590,32 +2602,32 @@
       <c r="I36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15" t="s">
-        <v>18</v>
+      <c r="J36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="20"/>
       <c r="Q36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="20"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="7" t="n">
         <v>0</v>
       </c>
@@ -2636,8 +2648,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
-      <c r="A38" s="33" t="s">
-        <v>21</v>
+      <c r="A38" s="36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -2659,26 +2671,26 @@
       <c r="J39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O39" s="21"/>
+      <c r="O39" s="24"/>
       <c r="P39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" s="21"/>
+      <c r="Q39" s="24"/>
       <c r="R39" s="7" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
       <c r="W39" s="7" t="n">
         <v>1</v>
       </c>
@@ -2706,7 +2718,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
@@ -2778,7 +2790,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="43">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
@@ -2845,57 +2857,57 @@
         <v>1</v>
       </c>
       <c r="AC44" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AD44" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AE44" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="46">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>24</v>
+      <c r="I47" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="M47" s="7" t="n">
         <v>1</v>
@@ -2944,11 +2956,11 @@
       <c r="AE47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF47" s="15"/>
+      <c r="AF47" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="49">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
@@ -2964,17 +2976,17 @@
       <c r="F50" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>24</v>
+      <c r="G50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="K50" s="7" t="n">
         <v>1</v>
@@ -3008,13 +3020,13 @@
         <v>1</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y50" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z50" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA50" s="13" t="n">
         <v>4</v>
@@ -3032,21 +3044,21 @@
         <v>1</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D53" s="13" t="n">
         <v>4</v>
@@ -3080,17 +3092,17 @@
       <c r="Q53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R53" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S53" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T53" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="U53" s="21" t="s">
-        <v>24</v>
+      <c r="R53" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="V53" s="7" t="n">
         <v>1</v>
@@ -3124,12 +3136,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF55" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF55" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="n">
         <v>1</v>
@@ -3178,13 +3190,13 @@
         <v>1</v>
       </c>
       <c r="Y56" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z56" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA56" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AB56" s="13" t="n">
         <v>4</v>
@@ -3196,11 +3208,11 @@
         <v>1</v>
       </c>
       <c r="AE56" s="7"/>
-      <c r="AF56" s="15"/>
+      <c r="AF56" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>39</v>
@@ -3229,8 +3241,8 @@
       <c r="P58" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24" t="n">
+      <c r="S58" s="27"/>
+      <c r="T58" s="27" t="n">
         <v>343</v>
       </c>
       <c r="U58" s="5" t="n">
@@ -3259,36 +3271,36 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>24</v>
+      <c r="C59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="G59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>24</v>
+      <c r="H59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="L59" s="7" t="n">
         <v>1</v>
@@ -3332,16 +3344,16 @@
       <c r="AC59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AD59" s="21"/>
-      <c r="AE59" s="21"/>
-      <c r="AF59" s="21"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>85</v>
@@ -3391,9 +3403,9 @@
       <c r="R61" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="S61" s="24"/>
-      <c r="U61" s="24"/>
-      <c r="V61" s="24" t="n">
+      <c r="S61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27" t="n">
         <v>82</v>
       </c>
       <c r="X61" s="5" t="n">
@@ -3419,8 +3431,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="22"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="7" t="n">
         <v>1</v>
       </c>
@@ -3469,39 +3481,42 @@
       <c r="Z62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
       <c r="AE62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF62" s="15"/>
+      <c r="AF62" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="C64" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
-      <c r="A65" s="22"/>
-      <c r="B65" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -3520,9 +3535,9 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3544,42 +3559,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N19" activeCellId="0" pane="topLeft" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.91372549019608"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3682,239 +3697,233 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="J3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="7"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="T3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="12"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
-      <c r="B6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="n">
+      <c r="B6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="J6" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="17"/>
+      <c r="K6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="15"/>
+      <c r="AF6" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
       <c r="A9" s="6"/>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="W9" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="9"/>
+      <c r="X9" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="8"/>
+      <c r="AB9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="n">
         <v>1</v>
@@ -3927,504 +3936,381 @@
       <c r="T12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB12" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="15"/>
+      <c r="U12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="B15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF15" s="21" t="s">
-        <v>24</v>
+      <c r="U15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
       <c r="A18" s="6"/>
-      <c r="B18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="15"/>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="6"/>
-      <c r="B21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7"/>
+      <c r="B21" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7"/>
+      <c r="I21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="7"/>
+      <c r="S21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
       <c r="AE21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF21" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF21" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="22"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="I24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="10"/>
       <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF26" s="23"/>
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="22"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G27" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="U27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="15"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="O29" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="S29" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="W29" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="X29" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y29" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z29" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE29" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF29" s="5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="22"/>
-      <c r="B30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="7" t="n">
         <v>1</v>
       </c>
@@ -4434,273 +4320,1156 @@
       <c r="F30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
-      <c r="A31" s="3"/>
+      <c r="G30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O32" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="P32" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R32" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="S32" s="24" t="n">
-        <v>49</v>
-      </c>
-      <c r="T32" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="V32" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="W32" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="X32" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y32" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="Z32" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB32" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC32" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD32" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
-      <c r="A33" s="22"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="J33" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K33" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L33" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="M33" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="N33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="U33" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="15"/>
+      <c r="AC33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="39">
+      <c r="A39" s="6"/>
+      <c r="B39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="20"/>
+      <c r="T39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="A42" s="6"/>
+      <c r="B42" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB45" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD45" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF48" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="50">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="53">
+      <c r="A53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="A54" s="6"/>
+      <c r="B54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="56">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="A57" s="25"/>
+      <c r="B57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="59">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF59" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="A60" s="25"/>
+      <c r="B60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="U60" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="62">
+      <c r="A62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="N62" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O62" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P62" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S62" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="W62" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="X62" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y62" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z62" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA62" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE62" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF62" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="A63" s="25"/>
+      <c r="B63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L63" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="A64" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="65">
+      <c r="A65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N65" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P65" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R65" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S65" s="27" t="n">
+        <v>49</v>
+      </c>
+      <c r="T65" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="U65" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="V65" s="27" t="n">
+        <v>18</v>
+      </c>
+      <c r="W65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X65" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y65" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB65" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC65" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="22"/>
-      <c r="B36" s="7" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="A66" s="25"/>
+      <c r="B66" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="L66" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M66" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U66" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="68">
+      <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
+      <c r="B68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="A69" s="25"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="R39:S39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4719,40 +5488,40 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C30" activeCellId="0" pane="topLeft" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4852,46 +5621,46 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -4958,11 +5727,11 @@
       <c r="AE6" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="AF6" s="15"/>
+      <c r="AF6" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -5033,7 +5802,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -5063,13 +5832,13 @@
         <v>1</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="13" t="n">
         <v>4</v>
@@ -5092,13 +5861,13 @@
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AD12" s="13" t="n">
         <v>4</v>
@@ -5106,20 +5875,20 @@
       <c r="AE12" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AF12" s="15"/>
+      <c r="AF12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="6"/>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>1</v>
@@ -5134,31 +5903,31 @@
         <v>1</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S15" s="13" t="n">
         <v>10</v>
@@ -5199,11 +5968,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="n">
         <v>1</v>
@@ -5221,13 +5990,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M18" s="13" t="n">
         <v>4</v>
@@ -5270,18 +6039,18 @@
       <c r="AC18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
       <c r="AF18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF20" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF20" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="7" t="n">
         <v>1</v>
       </c>
@@ -5290,13 +6059,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H21" s="13" t="n">
         <v>4</v>
@@ -5331,13 +6100,13 @@
         <v>1</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y21" s="13" t="n">
         <v>4</v>
@@ -5354,14 +6123,14 @@
       </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="15"/>
+      <c r="AF21" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27" t="n">
         <v>12</v>
       </c>
       <c r="Y23" s="5" t="n">
@@ -5377,10 +6146,10 @@
         <v>14</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -5390,7 +6159,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="7" t="n">
         <v>1</v>
       </c>
@@ -5404,17 +6173,17 @@
       <c r="F24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>24</v>
+      <c r="G24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="n">
         <v>1</v>
@@ -5443,10 +6212,10 @@
       <c r="Y24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
       <c r="AD24" s="7" t="n">
         <v>1</v>
       </c>
@@ -5458,7 +6227,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>11</v>
@@ -5479,19 +6248,19 @@
         <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>11</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>33</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>17</v>
@@ -5511,16 +6280,16 @@
       <c r="R26" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S26" s="24" t="n">
+      <c r="S26" s="27" t="n">
         <v>53</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="U26" s="24" t="n">
+      <c r="U26" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="V26" s="24" t="n">
+      <c r="V26" s="27" t="n">
         <v>22</v>
       </c>
       <c r="W26" s="5" t="n">
@@ -5536,7 +6305,7 @@
         <v>24</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB26" s="5" t="n">
         <v>17</v>
@@ -5548,11 +6317,11 @@
         <v>11</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="n">
         <v>1</v>
@@ -5588,13 +6357,13 @@
       <c r="P27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14" t="n">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="U27" s="14" t="n">
+      <c r="U27" s="11" t="n">
         <v>5</v>
       </c>
       <c r="V27" s="7" t="n">
@@ -5619,32 +6388,37 @@
       <c r="AE27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF27" s="15"/>
+      <c r="AF27" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
+      <c r="C29" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="22"/>
-      <c r="B30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -5663,9 +6437,9 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5685,41 +6459,41 @@
   </sheetPr>
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C74" activeCellId="0" pane="topLeft" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5819,7 +6593,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
@@ -5859,24 +6633,24 @@
       <c r="V3" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="W3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="16" t="s">
+      <c r="W3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -5939,7 +6713,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -5954,10 +6728,10 @@
       <c r="G9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="7" t="n">
         <v>1</v>
       </c>
@@ -5996,18 +6770,18 @@
       <c r="AC9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="6"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="n">
         <v>1</v>
       </c>
@@ -6057,15 +6831,15 @@
       <c r="AA12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="15"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -6132,7 +6906,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -6152,10 +6926,10 @@
       <c r="H18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="7" t="n">
         <v>1</v>
       </c>
@@ -6195,11 +6969,11 @@
       </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="15"/>
+      <c r="AF18" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -6276,7 +7050,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -6351,7 +7125,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -6421,15 +7195,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="6"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="7" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +7252,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -6501,10 +7275,10 @@
       <c r="I33" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="7" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +7313,11 @@
         <v>1</v>
       </c>
       <c r="AE33" s="13"/>
-      <c r="AF33" s="15"/>
+      <c r="AF33" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -6577,10 +7351,10 @@
       <c r="N36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
       <c r="S36" s="7" t="n">
         <v>1</v>
       </c>
@@ -6590,27 +7364,27 @@
       <c r="U36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
       <c r="Z36" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AA36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
       <c r="AF36" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -6656,10 +7430,10 @@
       <c r="V39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
       <c r="AA39" s="7" t="n">
         <v>1</v>
       </c>
@@ -6677,15 +7451,15 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="42">
       <c r="A42" s="6"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="7" t="n">
         <v>1</v>
       </c>
@@ -6694,28 +7468,28 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15" t="s">
-        <v>18</v>
+      <c r="J42" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="20"/>
       <c r="Q42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="R42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="20"/>
       <c r="T42" s="7" t="n">
         <v>1</v>
       </c>
@@ -6738,12 +7512,12 @@
         <v>1</v>
       </c>
       <c r="AC42" s="7"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
@@ -6810,13 +7584,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T47" s="5" t="n">
         <v>43</v>
@@ -6917,7 +7691,7 @@
       <c r="AE48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF48" s="15"/>
+      <c r="AF48" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="B50" s="5" t="n">
@@ -7016,7 +7790,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
@@ -7031,10 +7805,10 @@
       <c r="G53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
       <c r="L53" s="7" t="n">
         <v>1</v>
       </c>
@@ -7085,7 +7859,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
@@ -7114,10 +7888,10 @@
       <c r="M56" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
       <c r="R56" s="7" t="n">
         <v>1</v>
       </c>
@@ -7141,18 +7915,18 @@
       <c r="Z56" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
       <c r="AE56" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF56" s="15"/>
+      <c r="AF56" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
@@ -7163,10 +7937,10 @@
       <c r="C59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="7" t="n">
         <v>1</v>
       </c>
@@ -7185,10 +7959,10 @@
       <c r="O59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
       <c r="T59" s="7" t="n">
         <v>1</v>
       </c>
@@ -7201,10 +7975,10 @@
       <c r="Y59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-      <c r="AB59" s="21"/>
-      <c r="AC59" s="21"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
       <c r="AD59" s="7" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +7989,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="n">
         <v>1</v>
@@ -7279,17 +8053,17 @@
       <c r="AD62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE62" s="9"/>
+      <c r="AE62" s="10"/>
       <c r="AF62" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF64" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF64" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="7" t="n">
         <v>1</v>
       </c>
@@ -7350,17 +8124,17 @@
         <v>1</v>
       </c>
       <c r="AE65" s="7"/>
-      <c r="AF65" s="15"/>
+      <c r="AF65" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="67">
       <c r="A67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="n">
         <v>1</v>
@@ -7411,10 +8185,10 @@
       <c r="Y68" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
       <c r="AD68" s="7" t="n">
         <v>1</v>
       </c>
@@ -7426,7 +8200,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="70">
       <c r="A70" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B70" s="5" t="n">
         <v>13</v>
@@ -7453,7 +8227,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -7479,16 +8253,16 @@
       <c r="R70" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S70" s="24" t="n">
+      <c r="S70" s="27" t="n">
         <v>58</v>
       </c>
       <c r="T70" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="U70" s="24" t="n">
+      <c r="U70" s="27" t="n">
         <v>27</v>
       </c>
-      <c r="V70" s="24" t="n">
+      <c r="V70" s="27" t="n">
         <v>22</v>
       </c>
       <c r="W70" s="5" t="n">
@@ -7504,7 +8278,7 @@
         <v>34</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB70" s="5" t="n">
         <v>21</v>
@@ -7520,7 +8294,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="7" t="n">
         <v>1</v>
       </c>
@@ -7583,32 +8357,37 @@
       </c>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
-      <c r="AF71" s="15"/>
+      <c r="AF71" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="73">
       <c r="A73" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B73" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
+      <c r="C73" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
-      <c r="A74" s="22"/>
-      <c r="B74" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -7627,9 +8406,9 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="9"/>
-      <c r="AF74" s="9"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7655,42 +8434,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C71" activeCellId="0" pane="topLeft" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.74509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7790,7 +8569,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
@@ -7828,18 +8607,18 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="AA3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
+      <c r="AA3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -7876,10 +8655,10 @@
       <c r="S5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
       <c r="X5" s="7" t="n">
         <v>1</v>
       </c>
@@ -7896,7 +8675,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -7915,10 +8694,10 @@
       <c r="I8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="7" t="n">
         <v>1</v>
       </c>
@@ -7959,7 +8738,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -7988,17 +8767,17 @@
       <c r="K11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="7" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +8801,11 @@
       <c r="AE11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF11" s="15"/>
+      <c r="AF11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -8093,7 +8872,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -8154,11 +8933,11 @@
       <c r="AE17" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="AF17" s="15"/>
+      <c r="AF17" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -8231,7 +9010,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -8263,10 +9042,10 @@
       <c r="N23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
       <c r="S23" s="7" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +9077,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -8352,10 +9131,10 @@
       <c r="X26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
       <c r="AC26" s="7" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +9142,11 @@
         <v>1</v>
       </c>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="15"/>
+      <c r="AF26" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -8409,10 +9188,10 @@
       <c r="T29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
       <c r="Y29" s="7" t="n">
         <v>1</v>
       </c>
@@ -8432,7 +9211,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
@@ -8495,11 +9274,11 @@
       <c r="AE32" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF32" s="15"/>
+      <c r="AF32" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -8527,10 +9306,10 @@
       <c r="N35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="7" t="n">
         <v>1</v>
       </c>
@@ -8566,7 +9345,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="37">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
@@ -8614,10 +9393,10 @@
       <c r="X38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
       <c r="AC38" s="7" t="n">
         <v>1</v>
       </c>
@@ -8629,7 +9408,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="40">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="41">
@@ -8638,36 +9417,36 @@
       <c r="C41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15" t="s">
-        <v>18</v>
+      <c r="J41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="20"/>
       <c r="Q41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="20"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -8689,7 +9468,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="43">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
@@ -8723,10 +9502,10 @@
       <c r="P44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
       <c r="U44" s="7" t="n">
         <v>1</v>
       </c>
@@ -8752,7 +9531,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="46">
       <c r="A46" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
@@ -8803,10 +9582,10 @@
       <c r="W47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
       <c r="AB47" s="7" t="n">
         <v>1</v>
       </c>
@@ -8815,11 +9594,11 @@
       <c r="AE47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF47" s="15"/>
+      <c r="AF47" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="49">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
@@ -8833,10 +9612,10 @@
       <c r="F50" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="7" t="n">
         <v>1</v>
       </c>
@@ -8884,7 +9663,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N52" s="5" t="n">
         <v>12</v>
@@ -8989,25 +9768,25 @@
       <c r="U53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
       <c r="Z53" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AA53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="15"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB55" s="5" t="n">
         <v>62</v>
@@ -9089,11 +9868,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="7" t="n">
         <v>1</v>
       </c>
@@ -9160,12 +9939,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF61" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF61" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="7" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +10005,14 @@
       <c r="AE62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF62" s="15"/>
+      <c r="AF62" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
       <c r="X64" s="5" t="n">
         <v>131</v>
       </c>
@@ -9263,7 +10042,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="n">
         <v>1</v>
@@ -9331,7 +10110,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="67">
       <c r="A67" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>16</v>
@@ -9358,7 +10137,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -9384,16 +10163,16 @@
       <c r="R67" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="S67" s="24" t="n">
+      <c r="S67" s="27" t="n">
         <v>62</v>
       </c>
       <c r="T67" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="U67" s="24" t="n">
+      <c r="U67" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="V67" s="24" t="n">
+      <c r="V67" s="27" t="n">
         <v>39</v>
       </c>
       <c r="W67" s="5" t="n">
@@ -9409,7 +10188,7 @@
         <v>34</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB67" s="5" t="n">
         <v>39</v>
@@ -9425,7 +10204,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="13" t="n">
         <v>7</v>
       </c>
@@ -9446,10 +10225,10 @@
       <c r="I68" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
       <c r="N68" s="7" t="n">
         <v>1</v>
       </c>
@@ -9462,14 +10241,14 @@
       <c r="S68" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14" t="n">
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Y68" s="14" t="n">
+      <c r="Y68" s="11" t="n">
         <v>6</v>
       </c>
       <c r="Z68" s="7" t="n">
@@ -9482,32 +10261,35 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
-      <c r="AF68" s="15"/>
+      <c r="AF68" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="70">
       <c r="A70" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B70" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="C70" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
-      <c r="A71" s="22"/>
-      <c r="B71" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -9526,9 +10308,9 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9553,40 +10335,40 @@
   </sheetPr>
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C28" activeCellId="0" pane="topLeft" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9686,7 +10468,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -9753,11 +10535,11 @@
         <v>1</v>
       </c>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -9783,10 +10565,10 @@
       <c r="L7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="7" t="n">
         <v>1</v>
       </c>
@@ -9816,18 +10598,18 @@
       <c r="AC7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="6"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="7" t="n">
         <v>1</v>
       </c>
@@ -9854,17 +10636,17 @@
       <c r="P10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>24</v>
+      <c r="Q10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="U10" s="7" t="n">
         <v>1</v>
@@ -9887,11 +10669,11 @@
         <v>1</v>
       </c>
       <c r="AE10" s="7"/>
-      <c r="AF10" s="15"/>
+      <c r="AF10" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -9915,19 +10697,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="n">
         <v>1</v>
@@ -9941,16 +10723,16 @@
         <v>1</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="W13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y13" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z13" s="13" t="n">
         <v>5</v>
@@ -9974,52 +10756,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9" t="n">
+      <c r="A16" s="25"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R16" s="13" t="n">
         <v>7</v>
@@ -10030,37 +10812,37 @@
       <c r="T16" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="U16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
+      <c r="U16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
       <c r="AF16" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF18" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF18" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="7" t="n">
         <v>1</v>
       </c>
@@ -10083,17 +10865,17 @@
       <c r="M19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>24</v>
+      <c r="N19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="R19" s="7" t="n">
         <v>1</v>
@@ -10125,11 +10907,11 @@
       <c r="AE19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF19" s="15"/>
+      <c r="AF19" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L21" s="5" t="n">
         <v>84</v>
@@ -10152,10 +10934,10 @@
       <c r="R21" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="S21" s="24" t="n">
+      <c r="S21" s="27" t="n">
         <v>25</v>
       </c>
-      <c r="T21" s="24" t="n">
+      <c r="T21" s="27" t="n">
         <v>16</v>
       </c>
       <c r="W21" s="5" t="n">
@@ -10190,7 +10972,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="7" t="n">
         <v>1</v>
       </c>
@@ -10212,19 +10994,19 @@
         <v>1</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>1</v>
@@ -10270,7 +11052,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>24</v>
@@ -10323,16 +11105,16 @@
       <c r="R24" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="S24" s="24" t="n">
+      <c r="S24" s="27" t="n">
         <v>76</v>
       </c>
       <c r="T24" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="U24" s="24" t="n">
+      <c r="U24" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="V24" s="24" t="n">
+      <c r="V24" s="27" t="n">
         <v>44</v>
       </c>
       <c r="W24" s="5" t="n">
@@ -10364,7 +11146,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="n">
         <v>1</v>
@@ -10423,32 +11205,37 @@
         <v>1</v>
       </c>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="15"/>
+      <c r="AF25" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="C27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
-      <c r="A28" s="22"/>
-      <c r="B28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -10467,9 +11254,9 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10489,43 +11276,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C39" activeCellId="0" pane="topLeft" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.91372549019608"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89803921568627"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10625,7 +11412,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -10659,10 +11446,10 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
@@ -10670,7 +11457,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -10718,12 +11505,12 @@
         <v>1</v>
       </c>
       <c r="X6" s="7"/>
-      <c r="Y6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9" t="n">
+      <c r="Y6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="7"/>
@@ -10737,43 +11524,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="9">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>18</v>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="20"/>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="20"/>
       <c r="T9" s="7" t="n">
         <v>1</v>
       </c>
@@ -10781,33 +11568,33 @@
       <c r="V9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14" t="n">
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11" t="n">
         <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="30">
       <c r="A12" s="6"/>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="7" t="n">
         <v>1</v>
       </c>
@@ -10831,23 +11618,23 @@
       <c r="R12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14" t="n">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="X12" s="14" t="n">
+      <c r="X12" s="11" t="n">
         <v>6</v>
       </c>
       <c r="Y12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
       <c r="AD12" s="7" t="n">
         <v>1</v>
       </c>
@@ -10858,7 +11645,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>77</v>
@@ -10912,7 +11699,7 @@
         <v>12</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>56</v>
@@ -10994,17 +11781,17 @@
       <c r="V15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z15" s="21" t="s">
-        <v>24</v>
+      <c r="W15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="AA15" s="7" t="n">
         <v>1</v>
@@ -11017,11 +11804,11 @@
       <c r="AE15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF15" s="28"/>
+      <c r="AF15" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>30</v>
@@ -11181,11 +11968,11 @@
         <v>1</v>
       </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="29"/>
+      <c r="AF18" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -11194,17 +11981,17 @@
       <c r="C21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>24</v>
+      <c r="D21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>1</v>
@@ -11258,11 +12045,11 @@
         <v>1</v>
       </c>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="28"/>
+      <c r="AF21" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -11276,32 +12063,32 @@
       <c r="F24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>24</v>
+      <c r="G24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>24</v>
+      <c r="L24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>1</v>
@@ -11339,7 +12126,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE26" s="5" t="n">
         <v>22</v>
@@ -11349,7 +12136,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="n">
@@ -11410,15 +12197,15 @@
         <v>1</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF27" s="30" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="AF27" s="33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>26</v>
@@ -11453,15 +12240,15 @@
       <c r="N29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AF29" s="31"/>
+      <c r="AF29" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D30" s="13" t="n">
         <v>5</v>
@@ -11477,13 +12264,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L30" s="13" t="n">
         <v>4</v>
@@ -11525,11 +12312,11 @@
       <c r="AE30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" s="28"/>
+      <c r="AF30" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>21</v>
@@ -11582,10 +12369,10 @@
       <c r="R32" s="5" t="n">
         <v>242</v>
       </c>
-      <c r="S32" s="24" t="n">
+      <c r="S32" s="27" t="n">
         <v>262</v>
       </c>
-      <c r="T32" s="24" t="n">
+      <c r="T32" s="27" t="n">
         <v>181</v>
       </c>
       <c r="U32" s="5" t="n">
@@ -11626,7 +12413,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="7" t="n">
         <v>1</v>
       </c>
@@ -11634,16 +12421,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H33" s="13" t="n">
         <v>5</v>
@@ -11710,7 +12497,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>28</v>
@@ -11763,16 +12550,16 @@
       <c r="R35" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S35" s="24" t="n">
+      <c r="S35" s="27" t="n">
         <v>84</v>
       </c>
       <c r="T35" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="U35" s="24" t="n">
+      <c r="U35" s="27" t="n">
         <v>42</v>
       </c>
-      <c r="V35" s="24" t="n">
+      <c r="V35" s="27" t="n">
         <v>52</v>
       </c>
       <c r="W35" s="5" t="n">
@@ -11804,14 +12591,14 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="7" t="n">
         <v>1</v>
       </c>
@@ -11869,33 +12656,38 @@
       <c r="AE36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AF36" s="28"/>
+      <c r="AF36" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="C38" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="22"/>
-      <c r="B39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -11914,9 +12706,9 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11940,37 +12732,37 @@
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C48" activeCellId="0" pane="topLeft" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12070,7 +12862,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -12111,29 +12903,29 @@
       <c r="S5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
       <c r="X5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
       <c r="AC5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
       <c r="AF5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -12198,15 +12990,15 @@
       </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="15"/>
+      <c r="AD8" s="19"/>
       <c r="AE8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -12269,7 +13061,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -12338,7 +13130,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
@@ -12357,22 +13149,22 @@
       <c r="I17" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
+      <c r="J17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
@@ -12394,7 +13186,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -12463,7 +13255,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -12513,10 +13305,10 @@
       <c r="X23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
       <c r="AC23" s="7" t="n">
         <v>1</v>
       </c>
@@ -12524,11 +13316,11 @@
       <c r="AE23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF23" s="15"/>
+      <c r="AF23" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -12696,7 +13488,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -12707,10 +13499,10 @@
       <c r="C30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="7" t="n">
         <v>1</v>
       </c>
@@ -12757,11 +13549,11 @@
       </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="15"/>
+      <c r="AF30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -12832,11 +13624,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="7" t="n">
         <v>1</v>
       </c>
@@ -12870,10 +13662,10 @@
       <c r="R36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
       <c r="W36" s="7" t="n">
         <v>1</v>
       </c>
@@ -12899,19 +13691,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF38" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF38" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="7" t="n">
         <v>1</v>
       </c>
@@ -12920,10 +13712,10 @@
       <c r="J39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
       <c r="O39" s="7" t="n">
         <v>1</v>
       </c>
@@ -12936,10 +13728,10 @@
       <c r="T39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
       <c r="Y39" s="7" t="n">
         <v>1</v>
       </c>
@@ -12953,14 +13745,14 @@
         <v>1</v>
       </c>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="15"/>
+      <c r="AF39" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
       <c r="AD41" s="5" t="n">
         <v>20</v>
       </c>
@@ -12972,7 +13764,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="7" t="n">
         <v>1</v>
       </c>
@@ -13042,7 +13834,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>29</v>
@@ -13095,16 +13887,16 @@
       <c r="R44" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="S44" s="24" t="n">
+      <c r="S44" s="27" t="n">
         <v>84</v>
       </c>
       <c r="T44" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="U44" s="24" t="n">
+      <c r="U44" s="27" t="n">
         <v>71</v>
       </c>
-      <c r="V44" s="24" t="n">
+      <c r="V44" s="27" t="n">
         <v>58</v>
       </c>
       <c r="W44" s="5" t="n">
@@ -13136,7 +13928,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="7" t="n">
         <v>2</v>
       </c>
@@ -13195,32 +13987,35 @@
         <v>1</v>
       </c>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="15"/>
+      <c r="AF45" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="C47" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
-      <c r="A48" s="22"/>
-      <c r="B48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -13239,9 +14034,9 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13264,38 +14059,38 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C69" activeCellId="0" pane="topLeft" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.32156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.04705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.46666666666667"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13395,19 +14190,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="7" t="n">
         <v>1</v>
       </c>
@@ -13445,24 +14240,24 @@
         <v>1</v>
       </c>
       <c r="V3" s="7"/>
-      <c r="W3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="16" t="s">
+      <c r="W3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
-      <c r="A4" s="33" t="s">
-        <v>17</v>
+      <c r="A4" s="36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -13526,12 +14321,12 @@
       <c r="AD5" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
-      <c r="A7" s="33" t="s">
-        <v>21</v>
+      <c r="A7" s="36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -13591,8 +14386,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
-      <c r="A10" s="33" t="s">
-        <v>22</v>
+      <c r="A10" s="36" t="s">
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -13661,11 +14456,11 @@
       <c r="AE11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF11" s="15"/>
+      <c r="AF11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
-      <c r="A13" s="33" t="s">
-        <v>25</v>
+      <c r="A13" s="36" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -13741,8 +14536,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
-      <c r="A16" s="33" t="s">
-        <v>26</v>
+      <c r="A16" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -13750,17 +14545,17 @@
       <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="7" t="n">
         <v>1</v>
       </c>
@@ -13803,10 +14598,10 @@
       <c r="AE17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF17" s="15"/>
+      <c r="AF17" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13856,10 +14651,10 @@
       <c r="Y20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
       <c r="AD20" s="7" t="n">
         <v>1</v>
       </c>
@@ -13872,7 +14667,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -13891,10 +14686,10 @@
       <c r="I23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="7" t="n">
         <v>1</v>
       </c>
@@ -13939,7 +14734,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -13976,10 +14771,10 @@
       <c r="O25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
       <c r="T25" s="7" t="n">
         <v>1</v>
       </c>
@@ -14002,11 +14797,11 @@
         <v>1</v>
       </c>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="15"/>
+      <c r="AF25" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -14077,25 +14872,25 @@
       <c r="AE28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AF28" s="21"/>
+      <c r="AF28" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="6"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="7" t="n">
         <v>1</v>
       </c>
@@ -14124,10 +14919,10 @@
       <c r="U31" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
       <c r="Z31" s="7" t="n">
         <v>1</v>
       </c>
@@ -14145,7 +14940,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
@@ -14155,20 +14950,20 @@
       <c r="D34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
       <c r="O34" s="7" t="n">
         <v>1</v>
       </c>
@@ -14210,7 +15005,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="36">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
@@ -14279,7 +15074,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="39">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="40">
@@ -14302,22 +15097,22 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
+      <c r="J40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
       <c r="T40" s="7" t="n">
         <v>1</v>
       </c>
@@ -14341,7 +15136,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="42">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
@@ -14365,13 +15160,13 @@
         <v>1</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M43" s="13" t="n">
         <v>4</v>
@@ -14418,7 +15213,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
@@ -14445,10 +15240,10 @@
       <c r="K45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
       <c r="P45" s="7" t="n">
         <v>1</v>
       </c>
@@ -14479,11 +15274,11 @@
       </c>
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
-      <c r="AF45" s="15"/>
+      <c r="AF45" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
@@ -14535,10 +15330,10 @@
       <c r="V48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
       <c r="AA48" s="7" t="n">
         <v>1</v>
       </c>
@@ -14558,7 +15353,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="50">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
@@ -14621,11 +15416,11 @@
       <c r="AE51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF51" s="15"/>
+      <c r="AF51" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="53">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
@@ -14696,11 +15491,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="56">
       <c r="A56" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="n">
         <v>1</v>
@@ -14730,10 +15525,10 @@
       <c r="R57" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
       <c r="W57" s="7" t="n">
         <v>1</v>
       </c>
@@ -14761,12 +15556,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="59">
       <c r="A59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF59" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="AF59" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="7" t="n">
         <v>1</v>
       </c>
@@ -14775,17 +15570,17 @@
       <c r="E60" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
       <c r="O60" s="7" t="n">
         <v>1</v>
       </c>
@@ -14823,11 +15618,11 @@
         <v>1</v>
       </c>
       <c r="AE60" s="7"/>
-      <c r="AF60" s="15"/>
+      <c r="AF60" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="62">
       <c r="A62" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>34</v>
@@ -14871,8 +15666,8 @@
       <c r="R62" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
       <c r="U62" s="5" t="n">
         <v>242</v>
       </c>
@@ -14911,30 +15706,30 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
-      <c r="A63" s="22"/>
-      <c r="B63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="9" t="n">
+      <c r="A63" s="25"/>
+      <c r="B63" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="10" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="8"/>
@@ -14979,7 +15774,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="65">
       <c r="A65" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>40</v>
@@ -15032,16 +15827,16 @@
       <c r="R65" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="S65" s="24" t="n">
+      <c r="S65" s="27" t="n">
         <v>88</v>
       </c>
       <c r="T65" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="U65" s="24" t="n">
+      <c r="U65" s="27" t="n">
         <v>83</v>
       </c>
-      <c r="V65" s="24" t="n">
+      <c r="V65" s="27" t="n">
         <v>64</v>
       </c>
       <c r="W65" s="5" t="n">
@@ -15073,7 +15868,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="7" t="n">
         <v>1</v>
       </c>
@@ -15126,40 +15921,45 @@
       <c r="Y66" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
-      <c r="AB66" s="18"/>
-      <c r="AC66" s="18"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
       <c r="AD66" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AE66" s="7"/>
-      <c r="AF66" s="15"/>
+      <c r="AF66" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="68">
       <c r="A68" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
+      <c r="C68" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
-      <c r="A69" s="22"/>
-      <c r="B69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -15178,9 +15978,9 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="460" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="507" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="55">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>T12</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
   <si>
     <t>?</t>
@@ -527,9 +530,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.5019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.7725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -684,41 +687,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C29" activeCellId="0" pane="topLeft" sqref="C29"/>
+      <selection activeCell="D29" activeCellId="0" pane="topLeft" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1577,16 +1580,19 @@
       <c r="C28" s="5" t="n">
         <v>63</v>
       </c>
+      <c r="D28" s="5" t="n">
+        <v>50</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
@@ -1634,41 +1640,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C65" activeCellId="0" pane="topLeft" sqref="C65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="D65" activeCellId="0" pane="topLeft" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.8"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2435,7 +2441,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -3500,16 +3506,19 @@
       <c r="C64" s="5" t="n">
         <v>72</v>
       </c>
+      <c r="D64" s="5" t="n">
+        <v>68</v>
+      </c>
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
@@ -3561,40 +3570,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N19" activeCellId="0" pane="topLeft" sqref="N19"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="D69" activeCellId="0" pane="topLeft" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3697,7 +3706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="n">
         <v>1</v>
@@ -3764,7 +3773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="n">
         <v>1</v>
@@ -3829,7 +3838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="6"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4030,7 +4039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="n">
@@ -5427,16 +5436,19 @@
       <c r="C68" s="5" t="n">
         <v>12</v>
       </c>
+      <c r="D68" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
@@ -5489,39 +5501,39 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C30" activeCellId="0" pane="topLeft" sqref="C30"/>
+      <selection activeCell="D30" activeCellId="0" pane="topLeft" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6149,7 +6161,7 @@
         <v>37</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -6400,18 +6412,23 @@
       <c r="C29" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="D29" s="5" t="n">
+        <v>28</v>
+      </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="30">
       <c r="A30" s="25"/>
       <c r="B30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="10"/>
+      <c r="C30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
@@ -6459,41 +6476,41 @@
   </sheetPr>
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C74" activeCellId="0" pane="topLeft" sqref="C74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="D74" activeCellId="0" pane="topLeft" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6634,13 +6651,13 @@
         <v>5</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -7317,7 +7334,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -8227,7 +8244,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -8278,7 +8295,7 @@
         <v>34</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB70" s="5" t="n">
         <v>21</v>
@@ -8369,18 +8386,21 @@
       <c r="C73" s="5" t="n">
         <v>16</v>
       </c>
+      <c r="D73" s="5" t="n">
+        <v>29</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
       <c r="B74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7"/>
@@ -8435,41 +8455,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C71" activeCellId="0" pane="topLeft" sqref="C71"/>
+      <selection activeCell="D71" activeCellId="0" pane="topLeft" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.8"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8608,7 +8628,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -10029,7 +10049,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD64" s="5" t="n">
         <v>14</v>
@@ -10137,7 +10157,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -10188,7 +10208,7 @@
         <v>34</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB67" s="5" t="n">
         <v>39</v>
@@ -10273,16 +10293,19 @@
       <c r="C70" s="5" t="n">
         <v>18</v>
       </c>
+      <c r="D70" s="5" t="n">
+        <v>34</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
@@ -10336,39 +10359,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C28" activeCellId="0" pane="topLeft" sqref="C28"/>
+      <selection activeCell="D28" activeCellId="0" pane="topLeft" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10920,7 +10943,7 @@
         <v>51</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O21" s="5" t="n">
         <v>26</v>
@@ -11217,18 +11240,23 @@
       <c r="C27" s="5" t="n">
         <v>26</v>
       </c>
+      <c r="D27" s="5" t="n">
+        <v>36</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
       <c r="B28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="10"/>
+      <c r="C28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
@@ -11277,42 +11305,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C39" activeCellId="0" pane="topLeft" sqref="C39"/>
+      <selection activeCell="D39" activeCellId="0" pane="topLeft" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12668,19 +12696,24 @@
       <c r="C38" s="5" t="n">
         <v>40</v>
       </c>
+      <c r="D38" s="5" t="n">
+        <v>38</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
       <c r="A39" s="25"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="10"/>
+      <c r="C39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
@@ -12733,36 +12766,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C48" activeCellId="0" pane="topLeft" sqref="C48"/>
+      <selection activeCell="D48" activeCellId="0" pane="topLeft" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13158,7 +13191,7 @@
         <v>28</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -13999,16 +14032,19 @@
       <c r="C47" s="5" t="n">
         <v>44</v>
       </c>
+      <c r="D47" s="5" t="n">
+        <v>38</v>
+      </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
@@ -14060,37 +14096,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C69" activeCellId="0" pane="topLeft" sqref="C69"/>
+      <selection activeCell="D69" activeCellId="0" pane="topLeft" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14196,7 +14232,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -14241,13 +14277,13 @@
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -14602,7 +14638,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -15106,7 +15142,7 @@
         <v>28</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -15941,18 +15977,23 @@
       <c r="C68" s="5" t="n">
         <v>46</v>
       </c>
+      <c r="D68" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="10"/>
+      <c r="C69" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="507" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="499" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="55">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -530,9 +530,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.043137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -687,41 +687,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D29" activeCellId="0" pane="topLeft" sqref="D29"/>
+      <selection activeCell="E29" activeCellId="0" pane="topLeft" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1583,6 +1583,9 @@
       <c r="D28" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="E28" s="5" t="n">
+        <v>81</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
@@ -1590,10 +1593,12 @@
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
       <c r="H29" s="10"/>
@@ -1641,40 +1646,40 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D65" activeCellId="0" pane="topLeft" sqref="D65"/>
+      <selection activeCell="E65" activeCellId="0" pane="topLeft" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.8"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3516,10 +3521,10 @@
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
       <c r="H65" s="10"/>
@@ -3571,39 +3576,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D69" activeCellId="0" pane="topLeft" sqref="D69"/>
+      <selection activeCell="E69" activeCellId="0" pane="topLeft" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5366,7 +5371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="66">
       <c r="A66" s="25"/>
       <c r="B66" s="7" t="n">
         <v>2</v>
@@ -5420,10 +5425,10 @@
       <c r="AA66" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
       <c r="AF66" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="68">
@@ -5439,17 +5444,24 @@
       <c r="D68" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="E68" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D69" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
       <c r="H69" s="10"/>
@@ -5501,39 +5513,39 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D30" activeCellId="0" pane="topLeft" sqref="D30"/>
+      <selection activeCell="E30" activeCellId="0" pane="topLeft" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6415,6 +6427,9 @@
       <c r="D29" s="5" t="n">
         <v>28</v>
       </c>
+      <c r="E29" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
@@ -6426,10 +6441,10 @@
       <c r="C30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
       <c r="H30" s="10"/>
@@ -6477,40 +6492,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D74" activeCellId="0" pane="topLeft" sqref="D74"/>
+      <selection activeCell="E74" activeCellId="0" pane="topLeft" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8389,6 +8404,9 @@
       <c r="D73" s="5" t="n">
         <v>29</v>
       </c>
+      <c r="E73" s="5" t="n">
+        <v>40</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -8398,10 +8416,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7"/>
       <c r="H74" s="10"/>
@@ -8455,41 +8473,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D71" activeCellId="0" pane="topLeft" sqref="D71"/>
+      <selection activeCell="F73" activeCellId="0" pane="topLeft" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.8"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.8156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10223,7 +10241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="68">
       <c r="A68" s="25"/>
       <c r="B68" s="13" t="n">
         <v>7</v>
@@ -10277,10 +10295,10 @@
       <c r="AA68" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
       <c r="AF68" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="70">
@@ -10296,17 +10314,24 @@
       <c r="D70" s="5" t="n">
         <v>34</v>
       </c>
+      <c r="E70" s="5" t="n">
+        <v>50</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
       <c r="H71" s="10"/>
@@ -10359,39 +10384,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D28" activeCellId="0" pane="topLeft" sqref="D28"/>
+      <selection activeCell="E28" activeCellId="0" pane="topLeft" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11243,6 +11268,9 @@
       <c r="D27" s="5" t="n">
         <v>36</v>
       </c>
+      <c r="E27" s="5" t="n">
+        <v>57</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
@@ -11254,10 +11282,10 @@
       <c r="C28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
       <c r="H28" s="10"/>
@@ -11305,42 +11333,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D39" activeCellId="0" pane="topLeft" sqref="D39"/>
+      <selection activeCell="E39" activeCellId="0" pane="topLeft" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12699,6 +12727,9 @@
       <c r="D38" s="5" t="n">
         <v>38</v>
       </c>
+      <c r="E38" s="5" t="n">
+        <v>59</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
@@ -12711,10 +12742,10 @@
       <c r="C39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
       <c r="H39" s="10"/>
@@ -12766,36 +12797,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D48" activeCellId="0" pane="topLeft" sqref="D48"/>
+      <selection activeCell="E48" activeCellId="0" pane="topLeft" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14035,6 +14066,9 @@
       <c r="D47" s="5" t="n">
         <v>38</v>
       </c>
+      <c r="E47" s="5" t="n">
+        <v>71</v>
+      </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
@@ -14042,10 +14076,10 @@
       <c r="A48" s="25"/>
       <c r="B48" s="7"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
       <c r="H48" s="10"/>
@@ -14096,37 +14130,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D69" activeCellId="0" pane="topLeft" sqref="D69"/>
+      <selection activeCell="E69" activeCellId="0" pane="topLeft" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.4156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15980,6 +16014,9 @@
       <c r="D68" s="5" t="n">
         <v>41</v>
       </c>
+      <c r="E68" s="5" t="n">
+        <v>76</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -15991,10 +16028,12 @@
       <c r="C69" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
       <c r="H69" s="10"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="499" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="463" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -530,9 +530,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.94509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.043137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.3137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -687,41 +687,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E29" activeCellId="0" pane="topLeft" sqref="E29"/>
+      <selection activeCell="J32" activeCellId="0" pane="topLeft" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1586,6 +1586,9 @@
       <c r="E28" s="5" t="n">
         <v>81</v>
       </c>
+      <c r="F28" s="5" t="n">
+        <v>87</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
@@ -1596,10 +1599,12 @@
       <c r="D29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="10"/>
       <c r="G29" s="7"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1646,40 +1651,40 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E65" activeCellId="0" pane="topLeft" sqref="E65"/>
+      <selection activeCell="G67" activeCellId="0" pane="topLeft" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3525,7 +3530,9 @@
       <c r="E65" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -3576,39 +3583,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E69" activeCellId="0" pane="topLeft" sqref="E69"/>
+      <selection activeCell="F69" activeCellId="0" pane="topLeft" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.55294117647059"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5371,7 +5378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="25"/>
       <c r="B66" s="7" t="n">
         <v>2</v>
@@ -5447,6 +5454,9 @@
       <c r="E68" s="5" t="n">
         <v>19</v>
       </c>
+      <c r="F68" s="5" t="n">
+        <v>90</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -5459,10 +5469,12 @@
       <c r="D69" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="10"/>
       <c r="G69" s="7"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -5513,39 +5525,39 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E30" activeCellId="0" pane="topLeft" sqref="E30"/>
+      <selection activeCell="F30" activeCellId="0" pane="topLeft" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6430,6 +6442,9 @@
       <c r="E29" s="5" t="n">
         <v>24</v>
       </c>
+      <c r="F29" s="5" t="n">
+        <v>38</v>
+      </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
@@ -6442,10 +6457,12 @@
         <v>1</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="10"/>
       <c r="G30" s="7"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -6492,40 +6509,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E74" activeCellId="0" pane="topLeft" sqref="E74"/>
+      <selection activeCell="F74" activeCellId="0" pane="topLeft" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8407,6 +8424,9 @@
       <c r="E73" s="5" t="n">
         <v>40</v>
       </c>
+      <c r="F73" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -8417,10 +8437,10 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="10"/>
       <c r="G74" s="7"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -8473,41 +8493,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F73" activeCellId="0" pane="topLeft" sqref="F73"/>
+      <selection activeCell="F71" activeCellId="0" pane="topLeft" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.8156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10241,7 +10261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="25"/>
       <c r="B68" s="13" t="n">
         <v>7</v>
@@ -10317,6 +10337,9 @@
       <c r="E70" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="F70" s="5" t="n">
+        <v>44</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
@@ -10329,10 +10352,12 @@
       <c r="D71" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="10"/>
       <c r="G71" s="7"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
@@ -10384,39 +10409,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E28" activeCellId="0" pane="topLeft" sqref="E28"/>
+      <selection activeCell="F28" activeCellId="0" pane="topLeft" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11271,6 +11296,9 @@
       <c r="E27" s="5" t="n">
         <v>57</v>
       </c>
+      <c r="F27" s="5" t="n">
+        <v>45</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
@@ -11283,10 +11311,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="10"/>
       <c r="G28" s="7"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -11333,42 +11361,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E39" activeCellId="0" pane="topLeft" sqref="E39"/>
+      <selection activeCell="F39" activeCellId="0" pane="topLeft" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12730,6 +12758,9 @@
       <c r="E38" s="5" t="n">
         <v>59</v>
       </c>
+      <c r="F38" s="5" t="n">
+        <v>45</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
@@ -12743,10 +12774,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="10"/>
       <c r="G39" s="7"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -12796,37 +12827,37 @@
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E48" activeCellId="0" pane="topLeft" sqref="E48"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="F48" activeCellId="0" pane="topLeft" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14069,6 +14100,9 @@
       <c r="E47" s="5" t="n">
         <v>71</v>
       </c>
+      <c r="F47" s="5" t="n">
+        <v>54</v>
+      </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
@@ -14077,10 +14111,10 @@
       <c r="B48" s="7"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="10"/>
       <c r="G48" s="7"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -14130,37 +14164,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E69" activeCellId="0" pane="topLeft" sqref="E69"/>
+      <selection activeCell="F69" activeCellId="0" pane="topLeft" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.44313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.94509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -16017,6 +16051,9 @@
       <c r="E68" s="5" t="n">
         <v>76</v>
       </c>
+      <c r="F68" s="5" t="n">
+        <v>62</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -16031,10 +16068,10 @@
       <c r="D69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="10"/>
       <c r="G69" s="7"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="463" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="434" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -162,6 +162,9 @@
     <t>08</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -177,7 +180,7 @@
     <t>T12 - 2012</t>
   </si>
   <si>
-    <t>07</t>
+    <t>09</t>
   </si>
   <si>
     <t>;08</t>
@@ -530,9 +533,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.98823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.3137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5882352941176"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -687,41 +688,40 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="J32" activeCellId="0" pane="topLeft" sqref="J32"/>
+      <selection activeCell="B28" activeCellId="0" pane="topLeft" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.49803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1589,6 +1589,21 @@
       <c r="F28" s="5" t="n">
         <v>87</v>
       </c>
+      <c r="G28" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>99</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
@@ -1602,14 +1617,14 @@
       <c r="E29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="F29" s="10"/>
       <c r="G29" s="7"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -1650,41 +1665,40 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="G67" activeCellId="0" pane="topLeft" sqref="G67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="I69" activeCellId="0" pane="topLeft" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.83529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.85098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2451,7 +2465,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -3519,6 +3533,18 @@
       <c r="D64" s="5" t="n">
         <v>68</v>
       </c>
+      <c r="G64" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="J64" s="5" t="n">
+        <v>70</v>
+      </c>
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
@@ -3535,9 +3561,13 @@
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="I65" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
+      <c r="K65" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -3582,40 +3612,39 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F69" activeCellId="0" pane="topLeft" sqref="F69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="G75" activeCellId="0" pane="topLeft" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.55294117647059"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5457,6 +5486,21 @@
       <c r="F68" s="5" t="n">
         <v>90</v>
       </c>
+      <c r="G68" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>54</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -5472,14 +5516,22 @@
       <c r="E69" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="10"/>
+      <c r="F69" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="J69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -5524,40 +5576,39 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F30" activeCellId="0" pane="topLeft" sqref="F30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="F33" activeCellId="0" pane="topLeft" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6185,7 +6236,7 @@
         <v>37</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -6445,6 +6496,21 @@
       <c r="F29" s="5" t="n">
         <v>38</v>
       </c>
+      <c r="G29" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>59</v>
+      </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
@@ -6460,14 +6526,20 @@
       <c r="E30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -6509,40 +6581,39 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F74" activeCellId="0" pane="topLeft" sqref="F74"/>
+      <selection activeCell="B73" activeCellId="0" pane="topLeft" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.64313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6683,13 +6754,13 @@
         <v>5</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -7366,7 +7437,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -8276,7 +8347,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -8327,7 +8398,7 @@
         <v>34</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB70" s="5" t="n">
         <v>21</v>
@@ -8427,6 +8498,21 @@
       <c r="F73" s="5" t="n">
         <v>41</v>
       </c>
+      <c r="G73" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K73" s="5" t="n">
+        <v>59</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -8435,17 +8521,25 @@
       <c r="B74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="10"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
+      <c r="J74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -8493,41 +8587,40 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F71" activeCellId="0" pane="topLeft" sqref="F71"/>
+      <selection activeCell="B70" activeCellId="0" pane="topLeft" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.83529411764706"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.49803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8666,7 +8759,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -10087,7 +10180,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD64" s="5" t="n">
         <v>14</v>
@@ -10195,7 +10288,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -10246,7 +10339,7 @@
         <v>34</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB67" s="5" t="n">
         <v>39</v>
@@ -10340,6 +10433,21 @@
       <c r="F70" s="5" t="n">
         <v>44</v>
       </c>
+      <c r="G70" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>69</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
@@ -10355,14 +10463,20 @@
       <c r="E71" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="7"/>
+      <c r="F71" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="I71" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
+      <c r="K71" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -10409,39 +10523,38 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F28" activeCellId="0" pane="topLeft" sqref="F28"/>
+      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.2078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10993,7 +11106,7 @@
         <v>51</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O21" s="5" t="n">
         <v>26</v>
@@ -11299,6 +11412,21 @@
       <c r="F27" s="5" t="n">
         <v>45</v>
       </c>
+      <c r="G27" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>86</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
@@ -11312,14 +11440,18 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -11361,42 +11493,41 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F39" activeCellId="0" pane="topLeft" sqref="F39"/>
+      <selection activeCell="B38" activeCellId="0" pane="topLeft" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.64313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12761,6 +12892,21 @@
       <c r="F38" s="5" t="n">
         <v>45</v>
       </c>
+      <c r="G38" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>89</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
@@ -12773,16 +12919,22 @@
       <c r="C39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="J39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -12828,36 +12980,35 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F48" activeCellId="0" pane="topLeft" sqref="F48"/>
+      <selection activeCell="M51" activeCellId="0" pane="topLeft" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.2078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13253,7 +13404,7 @@
         <v>28</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -14103,23 +14254,46 @@
       <c r="F47" s="5" t="n">
         <v>54</v>
       </c>
+      <c r="G47" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>90</v>
+      </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="K48" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -14164,37 +14338,36 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F69" activeCellId="0" pane="topLeft" sqref="F69"/>
+      <selection activeCell="B68" activeCellId="0" pane="topLeft" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.98823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14300,7 +14473,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -14345,13 +14518,13 @@
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -14706,7 +14879,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -15210,7 +15383,7 @@
         <v>28</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -16054,6 +16227,21 @@
       <c r="F68" s="5" t="n">
         <v>62</v>
       </c>
+      <c r="G68" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>96</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -16068,15 +16256,17 @@
       <c r="D69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="K69" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="434" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="402" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -165,10 +165,10 @@
     <t>07</t>
   </si>
   <si>
-    <t>?</t>
+    <t>'08</t>
   </si>
   <si>
-    <t>'08</t>
+    <t>?</t>
   </si>
   <si>
     <t>TET TET TET</t>
@@ -533,7 +533,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5882352941176"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.8666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -688,40 +690,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B28" activeCellId="0" pane="topLeft" sqref="B28"/>
+      <selection activeCell="M38" activeCellId="0" pane="topLeft" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1622,10 +1625,10 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" s="7"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -1666,39 +1669,40 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="I69" activeCellId="0" pane="topLeft" sqref="I69"/>
+      <selection activeCell="L67" activeCellId="0" pane="topLeft" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3568,7 +3572,9 @@
       <c r="K65" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="L65" s="7"/>
+      <c r="L65" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -3612,39 +3618,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="G75" activeCellId="0" pane="topLeft" sqref="G75"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="L69" activeCellId="0" pane="topLeft" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5501,6 +5508,9 @@
       <c r="K68" s="5" t="n">
         <v>54</v>
       </c>
+      <c r="L68" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -5529,9 +5539,7 @@
       <c r="J69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K69" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="K69" s="10"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -5576,39 +5584,40 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F33" activeCellId="0" pane="topLeft" sqref="F33"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="O32" activeCellId="0" pane="topLeft" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6236,7 +6245,7 @@
         <v>37</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -6511,6 +6520,9 @@
       <c r="K29" s="5" t="n">
         <v>59</v>
       </c>
+      <c r="L29" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
@@ -6537,10 +6549,10 @@
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="7"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -6581,39 +6593,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B73" activeCellId="0" pane="topLeft" sqref="B73"/>
+      <selection activeCell="L74" activeCellId="0" pane="topLeft" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8347,7 +8360,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -8513,6 +8526,9 @@
       <c r="K73" s="5" t="n">
         <v>59</v>
       </c>
+      <c r="L73" s="5" t="n">
+        <v>47</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -8537,9 +8553,7 @@
       <c r="J74" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K74" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="K74" s="10"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -8586,41 +8600,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B70" activeCellId="0" pane="topLeft" sqref="B70"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="M74" activeCellId="0" pane="topLeft" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.49803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10288,7 +10303,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -10448,6 +10463,9 @@
       <c r="K70" s="5" t="n">
         <v>69</v>
       </c>
+      <c r="L70" s="5" t="n">
+        <v>54</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
@@ -10474,10 +10492,10 @@
         <v>1</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L71" s="7"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -10523,38 +10541,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
+      <selection activeCell="L28" activeCellId="0" pane="topLeft" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11427,6 +11446,9 @@
       <c r="K27" s="5" t="n">
         <v>86</v>
       </c>
+      <c r="L27" s="5" t="n">
+        <v>54</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
@@ -11449,8 +11471,8 @@
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="10" t="s">
-        <v>46</v>
+      <c r="K28" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -11492,42 +11514,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B38" activeCellId="0" pane="topLeft" sqref="B38"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="L39" activeCellId="0" pane="topLeft" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12907,6 +12930,9 @@
       <c r="K38" s="5" t="n">
         <v>89</v>
       </c>
+      <c r="L38" s="5" t="n">
+        <v>57</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
@@ -12932,9 +12958,7 @@
       <c r="J39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="K39" s="10"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -12980,35 +13004,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="M51" activeCellId="0" pane="topLeft" sqref="M51"/>
+      <selection activeCell="M52" activeCellId="0" pane="topLeft" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14173,7 +14198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="45">
       <c r="A45" s="25"/>
       <c r="B45" s="7" t="n">
         <v>2</v>
@@ -14232,7 +14257,7 @@
       <c r="AD45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AE45" s="7"/>
+      <c r="AE45" s="11"/>
       <c r="AF45" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
@@ -14268,6 +14293,9 @@
       </c>
       <c r="K47" s="5" t="n">
         <v>90</v>
+      </c>
+      <c r="L47" s="5" t="n">
+        <v>74</v>
       </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
@@ -14291,10 +14319,10 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" s="7"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -14337,37 +14365,38 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B68" activeCellId="0" pane="topLeft" sqref="B68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="L71" activeCellId="0" pane="topLeft" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.49803921568627"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -16242,6 +16271,9 @@
       <c r="K68" s="5" t="n">
         <v>96</v>
       </c>
+      <c r="L68" s="5" t="n">
+        <v>76</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -16264,10 +16296,10 @@
         <v>1</v>
       </c>
       <c r="J69" s="10"/>
-      <c r="K69" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L69" s="7"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="402" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="479" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -165,10 +165,10 @@
     <t>07</t>
   </si>
   <si>
-    <t>'08</t>
+    <t>?</t>
   </si>
   <si>
-    <t>?</t>
+    <t>'08</t>
   </si>
   <si>
     <t>TET TET TET</t>
@@ -533,9 +533,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.8666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -690,41 +690,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="M38" activeCellId="0" pane="topLeft" sqref="M38"/>
+      <selection activeCell="N29" activeCellId="0" pane="topLeft" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1607,6 +1607,12 @@
       <c r="K28" s="5" t="n">
         <v>99</v>
       </c>
+      <c r="M28" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>86</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
@@ -1630,7 +1636,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -1668,41 +1676,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="L67" activeCellId="0" pane="topLeft" sqref="L67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N65" activeCellId="0" pane="topLeft" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3549,6 +3557,9 @@
       <c r="J64" s="5" t="n">
         <v>70</v>
       </c>
+      <c r="M64" s="5" t="n">
+        <v>68</v>
+      </c>
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
@@ -3576,7 +3587,9 @@
         <v>0</v>
       </c>
       <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
+      <c r="N65" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -3619,39 +3632,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="L69" activeCellId="0" pane="topLeft" sqref="L69"/>
+      <selection activeCell="N69" activeCellId="0" pane="topLeft" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.66274509803922"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5511,6 +5524,12 @@
       <c r="L68" s="5" t="n">
         <v>41</v>
       </c>
+      <c r="M68" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -5540,9 +5559,13 @@
         <v>1</v>
       </c>
       <c r="K69" s="10"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
+      <c r="N69" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -5584,40 +5607,40 @@
   </sheetPr>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="O32" activeCellId="0" pane="topLeft" sqref="O32"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N30" activeCellId="0" pane="topLeft" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6245,7 +6268,7 @@
         <v>37</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -6523,6 +6546,12 @@
       <c r="L29" s="5" t="n">
         <v>46</v>
       </c>
+      <c r="M29" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>13</v>
+      </c>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
@@ -6550,11 +6579,13 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="7" t="s">
-        <v>47</v>
+      <c r="L30" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -6593,40 +6624,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="L74" activeCellId="0" pane="topLeft" sqref="L74"/>
+      <selection activeCell="N74" activeCellId="0" pane="topLeft" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8360,7 +8391,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -8529,6 +8560,12 @@
       <c r="L73" s="5" t="n">
         <v>47</v>
       </c>
+      <c r="M73" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="N73" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -8556,7 +8593,9 @@
       <c r="K74" s="10"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
+      <c r="N74" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
@@ -8600,42 +8639,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="M74" activeCellId="0" pane="topLeft" sqref="M74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N71" activeCellId="0" pane="topLeft" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10303,7 +10342,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -10466,6 +10505,12 @@
       <c r="L70" s="5" t="n">
         <v>54</v>
       </c>
+      <c r="M70" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N70" s="5" t="n">
+        <v>31</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
@@ -10493,11 +10538,11 @@
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-      <c r="L71" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
+      <c r="N71" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
@@ -10541,39 +10586,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="L28" activeCellId="0" pane="topLeft" sqref="L28"/>
+      <selection activeCell="N28" activeCellId="0" pane="topLeft" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11449,6 +11494,12 @@
       <c r="L27" s="5" t="n">
         <v>54</v>
       </c>
+      <c r="M27" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>42</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
@@ -11476,7 +11527,9 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -11514,43 +11567,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="L39" activeCellId="0" pane="topLeft" sqref="L39"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N41" activeCellId="0" pane="topLeft" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12933,6 +12986,12 @@
       <c r="L38" s="5" t="n">
         <v>57</v>
       </c>
+      <c r="M38" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <v>52</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
@@ -12960,8 +13019,12 @@
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="M39" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -13004,36 +13067,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="M52" activeCellId="0" pane="topLeft" sqref="M52"/>
+      <selection activeCell="N48" activeCellId="0" pane="topLeft" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14198,7 +14261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="25"/>
       <c r="B45" s="7" t="n">
         <v>2</v>
@@ -14296,6 +14359,12 @@
       </c>
       <c r="L47" s="5" t="n">
         <v>74</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N47" s="5" t="n">
+        <v>56</v>
       </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
@@ -14317,14 +14386,16 @@
       <c r="H48" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -14365,38 +14436,38 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="L71" activeCellId="0" pane="topLeft" sqref="L71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N69" activeCellId="0" pane="topLeft" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.52549019607843"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -16274,6 +16345,12 @@
       <c r="L68" s="5" t="n">
         <v>76</v>
       </c>
+      <c r="M68" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="N68" s="5" t="n">
+        <v>57</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -16295,13 +16372,15 @@
       <c r="I69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="479" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="466" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -341,7 +341,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -426,6 +426,12 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -533,9 +539,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -689,42 +695,42 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N29" activeCellId="0" pane="topLeft" sqref="N29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="P31" activeCellId="0" pane="topLeft" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1613,6 +1619,12 @@
       <c r="N28" s="5" t="n">
         <v>86</v>
       </c>
+      <c r="O28" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>99</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
@@ -1636,11 +1648,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="7"/>
+      <c r="O29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -1676,41 +1690,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N65" activeCellId="0" pane="topLeft" sqref="N65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="P68" activeCellId="0" pane="topLeft" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1809,7 +1823,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1884,7 +1898,7 @@
       <c r="AF3" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1961,7 +1975,7 @@
       <c r="AF6" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2040,7 +2054,7 @@
       <c r="AF9" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2107,7 +2121,7 @@
       <c r="AF12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2194,7 +2208,7 @@
       <c r="AF15" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2255,7 +2269,7 @@
       <c r="AF18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2320,7 +2334,7 @@
       <c r="AF21" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2405,7 +2419,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2476,7 +2490,7 @@
       <c r="AF27" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="38" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2551,7 +2565,7 @@
       <c r="AF30" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2690,7 +2704,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3590,8 +3604,12 @@
       <c r="N65" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -3631,40 +3649,44 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N69" activeCellId="0" pane="topLeft" sqref="N69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" topLeftCell="B29" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A29" activeCellId="0" pane="bottomLeft" sqref="A29"/>
+      <selection activeCell="J39" activeCellId="0" pane="bottomRight" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.66274509803922"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5530,6 +5552,12 @@
       <c r="N68" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="O68" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P68" s="5" t="n">
+        <v>39</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -5563,11 +5591,11 @@
         <v>1</v>
       </c>
       <c r="M69" s="7"/>
-      <c r="N69" s="7" t="s">
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
@@ -5605,42 +5633,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N30" activeCellId="0" pane="topLeft" sqref="N30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5738,874 +5766,1387 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="19"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+      <c r="A6" s="28"/>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
+      <c r="A9" s="28"/>
+      <c r="B9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AC9" s="13"/>
-      <c r="AD9" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="12">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="C12" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="S12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="19"/>
+      <c r="D12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="V15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
+      <c r="A18" s="28"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="N18" s="13" t="n">
+      <c r="K18" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="O18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="10"/>
+      <c r="L18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AE18" s="10"/>
-      <c r="AF18" s="7"/>
+      <c r="AF18" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF20" s="26"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="25"/>
-      <c r="B21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="13" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="21">
+      <c r="A21" s="28"/>
+      <c r="B21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="O21" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="J21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="19"/>
+      <c r="P21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA23" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB23" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE23" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="AF23" s="5" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="25"/>
-      <c r="B24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.25" outlineLevel="0" r="24">
+      <c r="A24" s="28"/>
+      <c r="B24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="N26" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O26" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="P26" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="S26" s="27" t="n">
-        <v>53</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="U26" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="V26" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="W26" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="X26" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y26" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z26" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB26" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC26" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD26" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="25"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="27">
+      <c r="A27" s="28"/>
+      <c r="B27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="K27" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11" t="n">
+      <c r="Q27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="U27" s="11" t="n">
+      <c r="AE27" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="V27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="19"/>
+      <c r="AF27" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC30" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF30" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE33" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF33" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD36" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="A39" s="6"/>
+      <c r="B39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U39" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="V39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="A42" s="25"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF44" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="A45" s="25"/>
+      <c r="B45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y45" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
+      <c r="A47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y47" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z47" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA47" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB47" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE47" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF47" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="A48" s="25"/>
+      <c r="B48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="A49" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="50">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N50" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O50" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="P50" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R50" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S50" s="27" t="n">
+        <v>53</v>
+      </c>
+      <c r="T50" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="U50" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V50" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="W50" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="X50" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y50" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z50" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB50" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC50" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD50" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="A51" s="25"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M51" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U51" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="53">
+      <c r="A53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B53" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C53" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D53" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E53" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F53" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G53" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H53" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I53" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K53" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="L53" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="M53" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="N53" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="30">
-      <c r="A30" s="25"/>
-      <c r="B30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7" t="s">
+      <c r="O53" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="P53" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="54">
+      <c r="A54" s="25"/>
+      <c r="B54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="R24:S24"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -6623,41 +7164,41 @@
   </sheetPr>
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N74" activeCellId="0" pane="topLeft" sqref="N74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="N78" activeCellId="0" pane="topLeft" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -6797,12 +7338,12 @@
       <c r="V3" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
         <v>49</v>
       </c>
@@ -8566,6 +9107,12 @@
       <c r="N73" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="O73" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="P73" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -8590,14 +9137,16 @@
       <c r="J74" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7" t="s">
+      <c r="K74" s="14"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
@@ -8639,42 +9188,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N71" activeCellId="0" pane="topLeft" sqref="N71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="P72" activeCellId="0" pane="topLeft" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10511,6 +11060,12 @@
       <c r="N70" s="5" t="n">
         <v>31</v>
       </c>
+      <c r="O70" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="P70" s="5" t="n">
+        <v>49</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
@@ -10536,15 +11091,19 @@
       <c r="I71" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7" t="s">
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
@@ -10586,39 +11145,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N28" activeCellId="0" pane="topLeft" sqref="N28"/>
+      <selection activeCell="P28" activeCellId="0" pane="topLeft" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11500,6 +12059,12 @@
       <c r="N27" s="5" t="n">
         <v>42</v>
       </c>
+      <c r="O27" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>66</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
@@ -11527,11 +12092,13 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -11567,43 +12134,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N41" activeCellId="0" pane="topLeft" sqref="N41"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="K42" activeCellId="0" pane="topLeft" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11874,7 +12441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="30">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="32">
       <c r="A12" s="6"/>
       <c r="B12" s="11" t="n">
         <v>7</v>
@@ -12095,7 +12662,7 @@
       <c r="AE15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF15" s="31"/>
+      <c r="AF15" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
@@ -12259,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="32"/>
+      <c r="AF18" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
@@ -12336,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="31"/>
+      <c r="AF21" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
@@ -12490,7 +13057,7 @@
       <c r="AE27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AF27" s="33" t="s">
+      <c r="AF27" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12531,7 +13098,7 @@
       <c r="N29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AF29" s="34"/>
+      <c r="AF29" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="25"/>
@@ -12603,7 +13170,7 @@
       <c r="AE30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" s="31"/>
+      <c r="AF30" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
@@ -12947,7 +13514,7 @@
       <c r="AE36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AF36" s="31"/>
+      <c r="AF36" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
@@ -12991,6 +13558,12 @@
       </c>
       <c r="N38" s="5" t="n">
         <v>52</v>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="P38" s="5" t="n">
+        <v>69</v>
       </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
@@ -13022,11 +13595,11 @@
       <c r="M39" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -13067,36 +13640,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N48" activeCellId="0" pane="topLeft" sqref="N48"/>
+      <selection activeCell="P48" activeCellId="0" pane="topLeft" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13491,14 +14064,14 @@
       <c r="M17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
@@ -14365,6 +14938,12 @@
       </c>
       <c r="N47" s="5" t="n">
         <v>56</v>
+      </c>
+      <c r="O47" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="P47" s="5" t="n">
+        <v>84</v>
       </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
@@ -14393,11 +14972,13 @@
       <c r="M48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="N48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -14436,38 +15017,38 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N69" activeCellId="0" pane="topLeft" sqref="N69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="Q71" activeCellId="0" pane="topLeft" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14617,12 +15198,12 @@
         <v>1</v>
       </c>
       <c r="V3" s="7"/>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
         <v>49</v>
       </c>
@@ -14633,7 +15214,7 @@
       <c r="AF3" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14702,7 +15283,7 @@
       <c r="AF5" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14763,7 +15344,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14836,7 +15417,7 @@
       <c r="AF11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14913,7 +15494,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14978,7 +15559,7 @@
       <c r="AF17" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15482,14 +16063,14 @@
       <c r="M40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="35" t="s">
+      <c r="N40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
       <c r="T40" s="7" t="n">
         <v>1</v>
       </c>
@@ -16351,6 +16932,12 @@
       <c r="N68" s="5" t="n">
         <v>57</v>
       </c>
+      <c r="O68" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="P68" s="5" t="n">
+        <v>84</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
@@ -16378,11 +16965,15 @@
       <c r="M69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="N69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="466" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="526" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -341,7 +341,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -426,6 +426,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -535,13 +538,13 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="AE3:AF3 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.7098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -696,41 +699,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P31" activeCellId="0" pane="topLeft" sqref="P31"/>
+      <selection activeCell="P31" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1628,7 +1631,7 @@
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
@@ -1691,40 +1694,40 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P68" activeCellId="0" pane="topLeft" sqref="P68"/>
+      <selection activeCell="P68" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.94509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1823,7 +1826,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1898,7 +1901,7 @@
       <c r="AF3" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1975,7 +1978,7 @@
       <c r="AF6" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2054,7 +2057,7 @@
       <c r="AF9" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2121,7 +2124,7 @@
       <c r="AF12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2208,7 +2211,7 @@
       <c r="AF15" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2269,7 +2272,7 @@
       <c r="AF18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2334,7 +2337,7 @@
       <c r="AF21" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2419,7 +2422,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2490,7 +2493,7 @@
       <c r="AF27" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2565,7 +2568,7 @@
       <c r="AF30" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2704,7 +2707,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3577,7 +3580,7 @@
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="10"/>
@@ -3649,44 +3652,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B29" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A29" activeCellId="0" pane="bottomLeft" sqref="A29"/>
-      <selection activeCell="J39" activeCellId="0" pane="bottomRight" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.71764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5561,7 +5560,7 @@
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13" t="n">
@@ -5633,42 +5632,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF54"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="AE3" activeCellId="0" pane="topLeft" sqref="AE3:AF3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5766,9 +5765,48 @@
         <v>31</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
@@ -5776,18 +5814,14 @@
       <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="10" t="n">
         <v>1</v>
       </c>
@@ -5801,47 +5835,43 @@
       <c r="M6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="10"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>7</v>
+      </c>
       <c r="U6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AF6" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF6" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
@@ -5853,41 +5883,47 @@
       <c r="D9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="E9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="O9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="10"/>
       <c r="Z9" s="10" t="n">
         <v>1</v>
       </c>
@@ -5895,74 +5931,73 @@
       <c r="AB9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="12">
       <c r="A12" s="28"/>
-      <c r="B12" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>5</v>
-      </c>
+      <c r="B12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="10"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>7</v>
+      </c>
       <c r="Q12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA12" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="13" t="n">
-        <v>10</v>
-      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
       <c r="AC12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AD12" s="10"/>
+      <c r="AD12" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AE12" s="10" t="n">
         <v>1</v>
       </c>
@@ -5970,30 +6005,30 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
       <c r="A15" s="28"/>
-      <c r="B15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10" t="n">
-        <v>1</v>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N15" s="10" t="n">
         <v>1</v>
@@ -6001,46 +6036,46 @@
       <c r="O15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="10"/>
+      <c r="P15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="10"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="10" t="n">
         <v>1</v>
       </c>
       <c r="W15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="10"/>
+      <c r="X15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
       <c r="AF15" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
       <c r="A18" s="28"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="10" t="n">
         <v>1</v>
       </c>
@@ -6049,130 +6084,138 @@
       <c r="F18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="M18" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="L18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="10"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AF18" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28"/>
       <c r="B21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="C21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" s="13" t="n">
-        <v>5</v>
+      <c r="K21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="P21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="10"/>
+      <c r="Y21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AF21" s="10"/>
+      <c r="AF21" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.25" outlineLevel="0" r="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="28"/>
       <c r="B24" s="10" t="n">
         <v>1</v>
@@ -6181,522 +6224,464 @@
       <c r="D24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="S24" s="30"/>
-      <c r="T24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="W24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="28"/>
-      <c r="B27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>1</v>
+      <c r="B27" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P27" s="13" t="n">
-        <v>5</v>
-      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10"/>
       <c r="Q27" s="10" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF27" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC30" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD30" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE30" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF30" s="19"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13" t="n">
+      <c r="A33" s="28"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="AE33" s="13" t="n">
+      <c r="K33" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AF33" s="7" t="n">
+      <c r="L33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="13" t="n">
+      <c r="A36" s="28"/>
+      <c r="B36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="R36" s="13" t="n">
+      <c r="O36" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="S36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD36" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE36" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF36" s="19"/>
+      <c r="P36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="U39" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="V39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.25" outlineLevel="0" r="39">
+      <c r="A39" s="28"/>
+      <c r="B39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="31"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
-      <c r="A42" s="25"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="13" t="n">
+      <c r="A42" s="28"/>
+      <c r="B42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="N42" s="13" t="n">
+      <c r="P42" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="O42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="7"/>
+      <c r="Q42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE42" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF42" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF44" s="26"/>
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
-      <c r="A45" s="25"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="7" t="n">
         <v>1</v>
       </c>
@@ -6704,138 +6689,92 @@
       <c r="D45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
       <c r="K45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="P45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" s="7"/>
+      <c r="Q45" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T45" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="T45" s="7"/>
       <c r="U45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="W45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="X45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y45" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
+      <c r="V45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD45" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE45" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="AF45" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y47" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z47" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA47" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB47" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC47" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE47" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF47" s="5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
-      <c r="A48" s="25"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="7" t="n">
         <v>1</v>
       </c>
@@ -6843,309 +6782,741 @@
       <c r="P48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="T48" s="7" t="n">
         <v>1</v>
       </c>
       <c r="U48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
+      <c r="V48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
       <c r="Y48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
-      <c r="A49" s="3"/>
+      <c r="Z48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF48" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="50">
       <c r="A50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D50" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E50" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F50" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G50" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O50" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="P50" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q50" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R50" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="S50" s="27" t="n">
-        <v>53</v>
-      </c>
-      <c r="T50" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="U50" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="V50" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="W50" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="X50" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y50" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z50" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB50" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC50" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD50" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE50" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
-      <c r="A51" s="25"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13" t="n">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="K51" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L51" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M51" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="N51" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" s="11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
       <c r="V51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W51" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z51" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7" t="n">
-        <v>1</v>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD51" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE51" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="AF51" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="53">
       <c r="A53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C53" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D53" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="F53" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="G53" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="H53" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="I53" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="M53" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="A54" s="6"/>
+      <c r="B54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U54" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="N53" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O53" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="P53" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="54">
-      <c r="A54" s="25"/>
-      <c r="B54" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O54" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
+      <c r="V54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
+      <c r="Y54" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
+      <c r="AB54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="56">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="A57" s="25"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="59">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF59" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="A60" s="25"/>
+      <c r="B60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y60" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="62">
+      <c r="A62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y62" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z62" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA62" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB62" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE62" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF62" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="A63" s="25"/>
+      <c r="B63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="A64" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="65">
+      <c r="A65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M65" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N65" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="P65" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q65" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R65" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S65" s="27" t="n">
+        <v>53</v>
+      </c>
+      <c r="T65" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="U65" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V65" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="W65" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="X65" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y65" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z65" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB65" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC65" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD65" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE65" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="A66" s="25"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M66" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U66" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="68">
+      <c r="A68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="L68" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="M68" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N68" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O68" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="P68" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="A69" s="25"/>
+      <c r="B69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="R39:S39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7165,40 +7536,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N78" activeCellId="0" pane="topLeft" sqref="N78"/>
+      <selection activeCell="N78" activeCellId="1" pane="topLeft" sqref="AE3:AF3 N78"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7338,12 +7709,12 @@
       <c r="V3" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
       <c r="AA3" s="20" t="s">
         <v>49</v>
       </c>
@@ -9116,7 +9487,7 @@
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
       <c r="B74" s="7" t="n">
         <v>1</v>
@@ -9189,41 +9560,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P72" activeCellId="0" pane="topLeft" sqref="P72"/>
+      <selection activeCell="P72" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.94509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11069,7 +11440,7 @@
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13" t="n">
@@ -11145,39 +11516,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P28" activeCellId="0" pane="topLeft" sqref="P28"/>
+      <selection activeCell="P28" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12068,7 +12439,7 @@
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
       <c r="B28" s="7" t="n">
         <v>2</v>
@@ -12135,42 +12506,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="K42" activeCellId="0" pane="topLeft" sqref="K42"/>
+      <selection activeCell="K42" activeCellId="1" pane="topLeft" sqref="AE3:AF3 K42"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12441,7 +12812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="32">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="33">
       <c r="A12" s="6"/>
       <c r="B12" s="11" t="n">
         <v>7</v>
@@ -12662,7 +13033,7 @@
       <c r="AE15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF15" s="33"/>
+      <c r="AF15" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
@@ -12826,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="34"/>
+      <c r="AF18" s="35"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
@@ -12903,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="33"/>
+      <c r="AF21" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
@@ -13057,7 +13428,7 @@
       <c r="AE27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AF27" s="35" t="s">
+      <c r="AF27" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13098,7 +13469,7 @@
       <c r="N29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AF29" s="36"/>
+      <c r="AF29" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="25"/>
@@ -13170,7 +13541,7 @@
       <c r="AE30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" s="33"/>
+      <c r="AF30" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
@@ -13514,7 +13885,7 @@
       <c r="AE36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AF36" s="33"/>
+      <c r="AF36" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
@@ -13569,7 +13940,7 @@
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="25"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
@@ -13640,36 +14011,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P48" activeCellId="0" pane="topLeft" sqref="P48"/>
+      <selection activeCell="P48" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14064,14 +14435,14 @@
       <c r="M17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +15319,7 @@
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
       <c r="B48" s="11"/>
       <c r="C48" s="13"/>
@@ -15018,37 +15389,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="Q71" activeCellId="0" pane="topLeft" sqref="Q71"/>
+      <selection activeCell="Q71" activeCellId="1" pane="topLeft" sqref="AE3:AF3 Q71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15198,12 +15569,12 @@
         <v>1</v>
       </c>
       <c r="V3" s="7"/>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
       <c r="AA3" s="20" t="s">
         <v>49</v>
       </c>
@@ -15214,7 +15585,7 @@
       <c r="AF3" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15283,7 +15654,7 @@
       <c r="AF5" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15344,7 +15715,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15417,7 +15788,7 @@
       <c r="AF11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15494,7 +15865,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15559,7 +15930,7 @@
       <c r="AF17" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16063,14 +16434,14 @@
       <c r="M40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="37" t="s">
+      <c r="N40" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
       <c r="T40" s="7" t="n">
         <v>1</v>
       </c>
@@ -16941,7 +17312,7 @@
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7" t="n">
         <v>1</v>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="526" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="414" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -171,6 +171,9 @@
     <t>'08</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
     <t>TET TET TET</t>
   </si>
   <si>
@@ -178,9 +181,6 @@
   </si>
   <si>
     <t>T12 - 2012</t>
-  </si>
-  <si>
-    <t>09</t>
   </si>
   <si>
     <t>;08</t>
@@ -341,7 +341,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -426,9 +426,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -538,13 +535,13 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="AE3:AF3 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -699,41 +696,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P31" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P31"/>
+      <selection activeCell="K30" activeCellId="0" pane="topLeft" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1628,10 +1625,16 @@
       <c r="P28" s="5" t="n">
         <v>99</v>
       </c>
+      <c r="Q28" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>47</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
@@ -1641,25 +1644,33 @@
       <c r="E29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="L29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="M29" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N29" s="11" t="n">
+        <v>8</v>
+      </c>
       <c r="O29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -1693,41 +1704,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P68" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="R68" activeCellId="0" pane="topLeft" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.94509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.98039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1826,7 +1837,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1901,7 +1912,7 @@
       <c r="AF3" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1978,7 +1989,7 @@
       <c r="AF6" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2057,7 +2068,7 @@
       <c r="AF9" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="11">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2124,7 +2135,7 @@
       <c r="AF12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="14">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2211,7 +2222,7 @@
       <c r="AF15" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2272,7 +2283,7 @@
       <c r="AF18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2337,7 +2348,7 @@
       <c r="AF21" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2422,7 +2433,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="26">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2493,8 +2504,8 @@
       <c r="AF27" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
-      <c r="A29" s="39" t="s">
-        <v>50</v>
+      <c r="A29" s="38" t="s">
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -2568,7 +2579,7 @@
       <c r="AF30" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2707,7 +2718,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3577,10 +3588,16 @@
       <c r="M64" s="5" t="n">
         <v>68</v>
       </c>
+      <c r="Q64" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="R64" s="5" t="n">
+        <v>61</v>
+      </c>
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="10"/>
@@ -3614,7 +3631,9 @@
         <v>0</v>
       </c>
       <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
+      <c r="R65" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
@@ -3652,40 +3671,44 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" topLeftCell="B50" xSplit="1" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A50" activeCellId="0" pane="bottomLeft" sqref="A50"/>
+      <selection activeCell="M46" activeCellId="0" pane="bottomRight" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.71764705882353"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4739,7 +4762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="7" t="n">
@@ -4763,11 +4786,11 @@
       <c r="K45" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>32</v>
+      <c r="L45" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="N45" s="7" t="n">
         <v>1</v>
@@ -4901,7 +4924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="n">
         <v>1</v>
@@ -4949,11 +4972,11 @@
       <c r="W51" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="X51" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51" s="13" t="s">
-        <v>32</v>
+      <c r="X51" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y51" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="Z51" s="7" t="n">
         <v>1</v>
@@ -5557,10 +5580,16 @@
       <c r="P68" s="5" t="n">
         <v>39</v>
       </c>
+      <c r="Q68" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13" t="n">
@@ -5592,11 +5621,11 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="7" t="s">
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
@@ -5634,40 +5663,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="AE3" activeCellId="0" pane="topLeft" sqref="AE3:AF3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="R72" activeCellId="0" pane="topLeft" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5809,7 +5838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28"/>
       <c r="B6" s="10" t="n">
         <v>1</v>
@@ -5874,7 +5903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28"/>
       <c r="B9" s="10" t="n">
         <v>1</v>
@@ -5941,7 +5970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="n">
         <v>1</v>
@@ -6008,7 +6037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="28"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6073,7 +6102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="n">
@@ -6402,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="10"/>
-      <c r="AF30" s="30"/>
+      <c r="AF30" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
@@ -6567,20 +6596,20 @@
       <c r="M39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="30" t="s">
+      <c r="N39" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="31" t="s">
+      <c r="O39" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="30" t="s">
+      <c r="P39" s="30"/>
+      <c r="Q39" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R39" s="31" t="s">
+      <c r="R39" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="S39" s="31"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10" t="n">
@@ -6601,8 +6630,8 @@
       <c r="AC39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
@@ -7456,10 +7485,16 @@
       <c r="P68" s="5" t="n">
         <v>43</v>
       </c>
+      <c r="Q68" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7" t="n">
         <v>1</v>
@@ -7493,11 +7528,13 @@
       <c r="O69" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
@@ -7536,40 +7573,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="N78" activeCellId="1" pane="topLeft" sqref="AE3:AF3 N78"/>
+      <selection activeCell="Q76" activeCellId="0" pane="topLeft" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7709,14 +7746,14 @@
       <c r="V3" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="W3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
+      <c r="W3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -8393,7 +8430,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -9464,7 +9501,7 @@
         <v>42</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>59</v>
@@ -9484,10 +9521,16 @@
       <c r="P73" s="5" t="n">
         <v>46</v>
       </c>
+      <c r="Q73" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="R73" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
       <c r="B74" s="7" t="n">
         <v>1</v>
@@ -9515,11 +9558,13 @@
       <c r="O74" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
@@ -9560,41 +9605,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P72" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P72"/>
+      <selection activeCell="S74" activeCellId="0" pane="topLeft" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.94509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.98039215686275"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9733,7 +9778,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -11437,10 +11482,16 @@
       <c r="P70" s="5" t="n">
         <v>49</v>
       </c>
+      <c r="Q70" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="R70" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13" t="n">
@@ -11472,11 +11523,15 @@
       <c r="O71" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="P71" s="7" t="s">
+      <c r="P71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
@@ -11515,40 +11570,40 @@
   </sheetPr>
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P28" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="R30" activeCellId="0" pane="topLeft" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12151,7 +12206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="22">
       <c r="A22" s="25"/>
       <c r="B22" s="7" t="n">
         <v>1</v>
@@ -12182,11 +12237,11 @@
       <c r="L22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>32</v>
+      <c r="M22" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>1</v>
@@ -12436,10 +12491,16 @@
       <c r="P27" s="5" t="n">
         <v>66</v>
       </c>
+      <c r="Q27" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
       <c r="B28" s="7" t="n">
         <v>2</v>
@@ -12447,9 +12508,9 @@
       <c r="C28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="7" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +12528,11 @@
         <v>1</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -12506,42 +12567,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="K42" activeCellId="1" pane="topLeft" sqref="AE3:AF3 K42"/>
+      <selection activeCell="M42" activeCellId="0" pane="topLeft" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12812,7 +12873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="33">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="32">
       <c r="A12" s="6"/>
       <c r="B12" s="11" t="n">
         <v>7</v>
@@ -13033,7 +13094,7 @@
       <c r="AE15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF15" s="34"/>
+      <c r="AF15" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
@@ -13197,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="35"/>
+      <c r="AF18" s="34"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
@@ -13274,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="34"/>
+      <c r="AF21" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
@@ -13428,7 +13489,7 @@
       <c r="AE27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AF27" s="36" t="s">
+      <c r="AF27" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13469,7 +13530,7 @@
       <c r="N29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AF29" s="37"/>
+      <c r="AF29" s="36"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="25"/>
@@ -13541,7 +13602,7 @@
       <c r="AE30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" s="34"/>
+      <c r="AF30" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
@@ -13885,7 +13946,7 @@
       <c r="AE36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AF36" s="34"/>
+      <c r="AF36" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
@@ -13936,11 +13997,17 @@
       <c r="P38" s="5" t="n">
         <v>69</v>
       </c>
+      <c r="Q38" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
       <c r="A39" s="25"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
@@ -13966,13 +14033,15 @@
       <c r="M39" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7" t="s">
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -14011,36 +14080,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="P48" activeCellId="1" pane="topLeft" sqref="AE3:AF3 P48"/>
+      <selection activeCell="R48" activeCellId="0" pane="topLeft" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14435,14 +14504,14 @@
       <c r="M17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="N17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
@@ -15316,10 +15385,16 @@
       <c r="P47" s="5" t="n">
         <v>84</v>
       </c>
+      <c r="Q47" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="R47" s="5" t="n">
+        <v>21</v>
+      </c>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
       <c r="B48" s="11"/>
       <c r="C48" s="13"/>
@@ -15347,11 +15422,11 @@
         <v>1</v>
       </c>
       <c r="O48" s="7"/>
-      <c r="P48" s="7" t="s">
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -15388,38 +15463,38 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="Q71" activeCellId="1" pane="topLeft" sqref="AE3:AF3 Q71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="Q73" activeCellId="0" pane="topLeft" sqref="Q73"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.63529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15569,14 +15644,14 @@
         <v>1</v>
       </c>
       <c r="V3" s="7"/>
-      <c r="W3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
+      <c r="W3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -15585,7 +15660,7 @@
       <c r="AF3" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15654,7 +15729,7 @@
       <c r="AF5" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15715,7 +15790,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15788,7 +15863,7 @@
       <c r="AF11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15865,7 +15940,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="16">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15930,7 +16005,7 @@
       <c r="AF17" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16434,14 +16509,14 @@
       <c r="M40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+      <c r="N40" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
       <c r="T40" s="7" t="n">
         <v>1</v>
       </c>
@@ -17309,10 +17384,16 @@
       <c r="P68" s="5" t="n">
         <v>84</v>
       </c>
+      <c r="Q68" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="R68" s="5" t="n">
+        <v>31</v>
+      </c>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7" t="n">
         <v>1</v>
@@ -17342,11 +17423,11 @@
       <c r="O69" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="414" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="520" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -534,14 +534,14 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.1450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -695,42 +695,42 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="K30" activeCellId="0" pane="topLeft" sqref="K30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="R30" activeCellId="0" pane="topLeft" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1634,7 +1634,7 @@
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
@@ -1668,8 +1668,8 @@
         <v>1</v>
       </c>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7" t="s">
-        <v>46</v>
+      <c r="R29" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -1702,43 +1702,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="R68" activeCellId="0" pane="topLeft" sqref="R68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S66" activeCellId="0" pane="topLeft" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.0156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3594,10 +3594,12 @@
       <c r="R64" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="S64" s="27"/>
+      <c r="S64" s="27" t="n">
+        <v>69</v>
+      </c>
       <c r="T64" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="10"/>
@@ -3631,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="Q65" s="7"/>
-      <c r="R65" s="7" t="s">
+      <c r="R65" s="7"/>
+      <c r="S65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -3648,6 +3650,11 @@
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="S66" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3671,44 +3678,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B50" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A50" activeCellId="0" pane="bottomLeft" sqref="A50"/>
-      <selection activeCell="M46" activeCellId="0" pane="bottomRight" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4762,7 +4765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="7" t="n">
@@ -4924,7 +4927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="n">
         <v>1</v>
@@ -5586,10 +5589,12 @@
       <c r="R68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S68" s="27"/>
+      <c r="S68" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13" t="n">
@@ -5623,10 +5628,12 @@
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="7" t="s">
+      <c r="R69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -5663,40 +5670,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="R72" activeCellId="0" pane="topLeft" sqref="R72"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S69" activeCellId="0" pane="topLeft" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7491,10 +7498,12 @@
       <c r="R68" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S68" s="27"/>
+      <c r="S68" s="27" t="n">
+        <v>13</v>
+      </c>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7" t="n">
         <v>1</v>
@@ -7532,10 +7541,12 @@
       <c r="Q69" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="R69" s="7" t="s">
+      <c r="R69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -7572,41 +7583,41 @@
   </sheetPr>
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="Q76" activeCellId="0" pane="topLeft" sqref="Q76"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S74" activeCellId="0" pane="topLeft" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9527,10 +9538,12 @@
       <c r="R73" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="S73" s="27"/>
+      <c r="S73" s="27" t="n">
+        <v>15</v>
+      </c>
       <c r="T73" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
       <c r="B74" s="7" t="n">
         <v>1</v>
@@ -9562,10 +9575,12 @@
       <c r="Q74" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="R74" s="7" t="s">
+      <c r="R74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
@@ -9604,42 +9619,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="S74" activeCellId="0" pane="topLeft" sqref="S74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S71" activeCellId="0" pane="topLeft" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.0156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11488,10 +11503,12 @@
       <c r="R70" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="S70" s="27"/>
+      <c r="S70" s="27" t="n">
+        <v>16</v>
+      </c>
       <c r="T70" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13" t="n">
@@ -11529,10 +11546,10 @@
       <c r="Q71" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R71" s="7" t="s">
+      <c r="R71" s="7"/>
+      <c r="S71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -11570,40 +11587,40 @@
   </sheetPr>
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="R30" activeCellId="0" pane="topLeft" sqref="R30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S28" activeCellId="0" pane="topLeft" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12206,7 +12223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="25"/>
       <c r="B22" s="7" t="n">
         <v>1</v>
@@ -12497,10 +12514,12 @@
       <c r="R27" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S27" s="27"/>
+      <c r="S27" s="27" t="n">
+        <v>21</v>
+      </c>
       <c r="T27" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
       <c r="B28" s="7" t="n">
         <v>2</v>
@@ -12530,10 +12549,10 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="7"/>
+      <c r="S28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -12566,43 +12585,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="M42" activeCellId="0" pane="topLeft" sqref="M42"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S39" activeCellId="0" pane="topLeft" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14003,11 +14022,13 @@
       <c r="R38" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S38" s="27"/>
+      <c r="S38" s="27" t="n">
+        <v>21</v>
+      </c>
       <c r="T38" s="27"/>
       <c r="AF38" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="25"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
@@ -14039,10 +14060,10 @@
       <c r="Q39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="R39" s="7"/>
+      <c r="S39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -14079,37 +14100,37 @@
   </sheetPr>
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="R48" activeCellId="0" pane="topLeft" sqref="R48"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S48" activeCellId="0" pane="topLeft" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15391,10 +15412,12 @@
       <c r="R47" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="S47" s="27"/>
+      <c r="S47" s="27" t="n">
+        <v>30</v>
+      </c>
       <c r="T47" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
       <c r="B48" s="11"/>
       <c r="C48" s="13"/>
@@ -15424,10 +15447,10 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7" t="s">
+      <c r="R48" s="7"/>
+      <c r="S48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -15463,38 +15486,38 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="Q73" activeCellId="0" pane="topLeft" sqref="Q73"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="S70" activeCellId="0" pane="topLeft" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -17390,10 +17413,12 @@
       <c r="R68" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="S68" s="27"/>
+      <c r="S68" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="T68" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
       <c r="B69" s="7" t="n">
         <v>1</v>
@@ -17425,10 +17450,10 @@
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="7" t="s">
+      <c r="R69" s="7"/>
+      <c r="S69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="520" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="489" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="56">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -539,9 +539,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.1450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.7254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -696,41 +696,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="R30" activeCellId="0" pane="topLeft" sqref="R30"/>
+      <selection activeCell="T29" activeCellId="0" pane="topLeft" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1631,8 +1631,12 @@
       <c r="R28" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
+      <c r="S28" s="27" t="n">
+        <v>36</v>
+      </c>
+      <c r="T28" s="27" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1672,7 +1676,9 @@
         <v>1</v>
       </c>
       <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="T29" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
@@ -1702,43 +1708,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF66"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S66" activeCellId="0" pane="topLeft" sqref="S66"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="T65" activeCellId="0" pane="topLeft" sqref="T65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3597,7 +3603,9 @@
       <c r="S64" s="27" t="n">
         <v>69</v>
       </c>
-      <c r="T64" s="27"/>
+      <c r="T64" s="27" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3634,10 +3642,10 @@
       </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="7" t="s">
+      <c r="S65" s="7"/>
+      <c r="T65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -3650,11 +3658,6 @@
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
-      <c r="S66" s="5" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3678,40 +3681,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="T69" activeCellId="0" pane="topLeft" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5592,7 +5595,9 @@
       <c r="S68" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="T68" s="27"/>
+      <c r="T68" s="27" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5631,10 +5636,10 @@
       <c r="R69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S69" s="7" t="s">
+      <c r="S69" s="7"/>
+      <c r="T69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
@@ -5671,39 +5676,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S69" activeCellId="0" pane="topLeft" sqref="S69"/>
+      <selection activeCell="T69" activeCellId="0" pane="topLeft" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7501,7 +7506,9 @@
       <c r="S68" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="T68" s="27"/>
+      <c r="T68" s="27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -7544,10 +7551,10 @@
       <c r="R69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S69" s="7" t="s">
+      <c r="S69" s="7"/>
+      <c r="T69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
@@ -7584,40 +7591,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S74" activeCellId="0" pane="topLeft" sqref="S74"/>
+      <selection activeCell="T74" activeCellId="0" pane="topLeft" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9541,7 +9548,9 @@
       <c r="S73" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="T73" s="27"/>
+      <c r="T73" s="27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
@@ -9578,10 +9587,12 @@
       <c r="R74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S74" s="7" t="s">
+      <c r="S74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
@@ -9620,41 +9631,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S71" activeCellId="0" pane="topLeft" sqref="S71"/>
+      <selection activeCell="T71" activeCellId="0" pane="topLeft" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11506,7 +11517,9 @@
       <c r="S70" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="T70" s="27"/>
+      <c r="T70" s="27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
@@ -11547,10 +11560,12 @@
         <v>1</v>
       </c>
       <c r="R71" s="7"/>
-      <c r="S71" s="7" t="s">
+      <c r="S71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
@@ -11588,39 +11603,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S28" activeCellId="0" pane="topLeft" sqref="S28"/>
+      <selection activeCell="T28" activeCellId="0" pane="topLeft" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12517,7 +12532,9 @@
       <c r="S27" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="T27" s="27"/>
+      <c r="T27" s="27" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
@@ -12550,10 +12567,10 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="7"/>
+      <c r="T28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -12590,38 +12607,38 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14025,7 +14042,9 @@
       <c r="S38" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="T38" s="27"/>
+      <c r="T38" s="27" t="n">
+        <v>27</v>
+      </c>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -14061,10 +14080,10 @@
         <v>1</v>
       </c>
       <c r="R39" s="7"/>
-      <c r="S39" s="7" t="s">
+      <c r="S39" s="7"/>
+      <c r="T39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -14105,32 +14124,32 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15415,7 +15434,9 @@
       <c r="S47" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="T47" s="27"/>
+      <c r="T47" s="27" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
@@ -15448,10 +15469,10 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="7" t="s">
+      <c r="S48" s="7"/>
+      <c r="T48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
@@ -15487,37 +15508,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S70" activeCellId="0" pane="topLeft" sqref="S70"/>
+      <selection activeCell="S69" activeCellId="0" pane="topLeft" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -17416,7 +17437,9 @@
       <c r="S68" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="T68" s="27"/>
+      <c r="T68" s="27" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17451,10 +17474,10 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="7" t="s">
+      <c r="S69" s="7"/>
+      <c r="T69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="489" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="554" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -539,9 +539,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.7254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -696,41 +694,40 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T29" activeCellId="0" pane="topLeft" sqref="T29"/>
+      <selection activeCell="U29" activeCellId="0" pane="topLeft" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.83529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1637,6 +1634,9 @@
       <c r="T28" s="27" t="n">
         <v>46</v>
       </c>
+      <c r="U28" s="5" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="S29" s="7"/>
-      <c r="T29" s="7" t="s">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
@@ -1711,40 +1711,39 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T65" activeCellId="0" pane="topLeft" sqref="T65"/>
+      <selection activeCell="T68" activeCellId="0" pane="topLeft" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.07058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3606,6 +3605,9 @@
       <c r="T64" s="27" t="n">
         <v>71</v>
       </c>
+      <c r="U64" s="5" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3643,10 +3645,10 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
-      <c r="T65" s="7" t="s">
+      <c r="T65" s="7"/>
+      <c r="U65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
@@ -3682,39 +3684,38 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T69" activeCellId="0" pane="topLeft" sqref="T69"/>
+      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.21960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5598,6 +5599,9 @@
       <c r="T68" s="27" t="s">
         <v>44</v>
       </c>
+      <c r="U68" s="5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5628,19 +5632,19 @@
       <c r="L69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
       <c r="R69" s="7" t="n">
         <v>1</v>
       </c>
       <c r="S69" s="7"/>
-      <c r="T69" s="7" t="s">
+      <c r="T69" s="7"/>
+      <c r="U69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
@@ -5676,39 +5680,38 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T69" activeCellId="0" pane="topLeft" sqref="T69"/>
+      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7509,6 +7512,9 @@
       <c r="T68" s="27" t="n">
         <v>11</v>
       </c>
+      <c r="U68" s="5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -7552,10 +7558,10 @@
         <v>1</v>
       </c>
       <c r="S69" s="7"/>
-      <c r="T69" s="7" t="s">
+      <c r="T69" s="7"/>
+      <c r="U69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
@@ -7590,41 +7596,40 @@
   </sheetPr>
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T74" activeCellId="0" pane="topLeft" sqref="T74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="U74" activeCellId="0" pane="topLeft" sqref="U74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9551,6 +9556,9 @@
       <c r="T73" s="27" t="n">
         <v>16</v>
       </c>
+      <c r="U73" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
@@ -9590,10 +9598,10 @@
       <c r="S74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T74" s="7" t="s">
+      <c r="T74" s="7"/>
+      <c r="U74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
@@ -9631,41 +9639,40 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T71" activeCellId="0" pane="topLeft" sqref="T71"/>
+      <selection activeCell="U71" activeCellId="0" pane="topLeft" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.83529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11520,6 +11527,9 @@
       <c r="T70" s="27" t="n">
         <v>18</v>
       </c>
+      <c r="U70" s="5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
@@ -11563,10 +11573,10 @@
       <c r="S71" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T71" s="7" t="s">
+      <c r="T71" s="7"/>
+      <c r="U71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
@@ -11602,40 +11612,39 @@
   </sheetPr>
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T28" activeCellId="0" pane="topLeft" sqref="T28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="U28" activeCellId="0" pane="topLeft" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12535,6 +12544,9 @@
       <c r="T27" s="27" t="n">
         <v>20</v>
       </c>
+      <c r="U27" s="5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
@@ -12568,10 +12580,10 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="7"/>
+      <c r="U28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
@@ -12603,42 +12615,41 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S39" activeCellId="0" pane="topLeft" sqref="S39"/>
+      <selection activeCell="U39" activeCellId="0" pane="topLeft" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.99607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14045,6 +14056,9 @@
       <c r="T38" s="27" t="n">
         <v>27</v>
       </c>
+      <c r="U38" s="5" t="n">
+        <v>36</v>
+      </c>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -14081,10 +14095,12 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="7" t="s">
+      <c r="T39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
@@ -14120,36 +14136,35 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S48" activeCellId="0" pane="topLeft" sqref="S48"/>
+      <selection activeCell="S51" activeCellId="0" pane="topLeft" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15437,6 +15452,9 @@
       <c r="T47" s="27" t="n">
         <v>28</v>
       </c>
+      <c r="U47" s="5" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
@@ -15465,15 +15483,21 @@
       <c r="N48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7" t="s">
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
@@ -15508,37 +15532,36 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S69" activeCellId="0" pane="topLeft" sqref="S69"/>
+      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.21960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -17440,6 +17463,9 @@
       <c r="T68" s="27" t="n">
         <v>29</v>
       </c>
+      <c r="U68" s="5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17471,14 +17497,16 @@
       <c r="O69" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7" t="s">
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="554" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="421" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="57">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>07</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
   <si>
     <t>?</t>
@@ -539,7 +542,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -694,40 +699,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U29" activeCellId="0" pane="topLeft" sqref="U29"/>
+      <selection activeCell="W29" activeCellId="0" pane="topLeft" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1637,6 +1643,12 @@
       <c r="U28" s="5" t="n">
         <v>68</v>
       </c>
+      <c r="V28" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="W28" s="5" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1677,11 +1689,13 @@
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7" t="s">
-        <v>46</v>
+      <c r="U29" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="W29" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -1710,40 +1724,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="T68" activeCellId="0" pane="topLeft" sqref="T68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="W65" activeCellId="0" pane="topLeft" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2510,7 +2525,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -3608,6 +3623,12 @@
       <c r="U64" s="5" t="n">
         <v>72</v>
       </c>
+      <c r="V64" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="W64" s="5" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3642,15 +3663,19 @@
       <c r="P65" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="W65" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
@@ -3684,38 +3709,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
+      <selection activeCell="W69" activeCellId="0" pane="topLeft" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5602,6 +5628,12 @@
       <c r="U68" s="5" t="n">
         <v>14</v>
       </c>
+      <c r="V68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5642,11 +5674,15 @@
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
+      <c r="U69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
@@ -5680,38 +5716,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
+      <selection activeCell="W69" activeCellId="0" pane="topLeft" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7210,7 +7247,7 @@
         <v>37</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE62" s="5" t="n">
         <v>16</v>
@@ -7504,7 +7541,7 @@
         <v>47</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S68" s="27" t="n">
         <v>13</v>
@@ -7514,6 +7551,12 @@
       </c>
       <c r="U68" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
@@ -7559,11 +7602,13 @@
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
@@ -7597,39 +7642,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U74" activeCellId="0" pane="topLeft" sqref="U74"/>
+      <selection activeCell="W74" activeCellId="0" pane="topLeft" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7770,13 +7816,13 @@
         <v>5</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -8453,7 +8499,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -9363,7 +9409,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -9524,7 +9570,7 @@
         <v>42</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>59</v>
@@ -9558,6 +9604,12 @@
       </c>
       <c r="U73" s="5" t="n">
         <v>26</v>
+      </c>
+      <c r="V73" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="W73" s="5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
@@ -9599,11 +9651,11 @@
         <v>1</v>
       </c>
       <c r="T74" s="7"/>
-      <c r="U74" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="U74" s="7"/>
       <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
+      <c r="W74" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
@@ -9639,40 +9691,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U71" activeCellId="0" pane="topLeft" sqref="U71"/>
+      <selection activeCell="W71" activeCellId="0" pane="topLeft" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9811,7 +9864,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -11232,7 +11285,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD64" s="5" t="n">
         <v>14</v>
@@ -11340,7 +11393,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -11530,6 +11583,12 @@
       <c r="U70" s="5" t="n">
         <v>32</v>
       </c>
+      <c r="V70" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="W70" s="5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
@@ -11574,11 +11633,11 @@
         <v>1</v>
       </c>
       <c r="T71" s="7"/>
-      <c r="U71" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="U71" s="7"/>
       <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
+      <c r="W71" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
@@ -11613,38 +11672,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U28" activeCellId="0" pane="topLeft" sqref="U28"/>
+      <selection activeCell="W28" activeCellId="0" pane="topLeft" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12196,7 +12256,7 @@
         <v>51</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O21" s="5" t="n">
         <v>26</v>
@@ -12547,6 +12607,12 @@
       <c r="U27" s="5" t="n">
         <v>34</v>
       </c>
+      <c r="V27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="25"/>
@@ -12575,17 +12641,23 @@
       <c r="N28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7" t="s">
-        <v>46</v>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="W28" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -12615,41 +12687,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U39" activeCellId="0" pane="topLeft" sqref="U39"/>
+      <selection activeCell="W45" activeCellId="0" pane="topLeft" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14059,6 +14132,12 @@
       <c r="U38" s="5" t="n">
         <v>36</v>
       </c>
+      <c r="V38" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="W38" s="5" t="n">
+        <v>28</v>
+      </c>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -14098,11 +14177,11 @@
       <c r="T39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="U39" s="7"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
+      <c r="W39" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -14136,35 +14215,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="S51" activeCellId="0" pane="topLeft" sqref="S51"/>
+      <selection activeCell="W48" activeCellId="0" pane="topLeft" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14560,7 +14640,7 @@
         <v>28</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -15454,6 +15534,12 @@
       </c>
       <c r="U47" s="5" t="n">
         <v>49</v>
+      </c>
+      <c r="V47" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="W47" s="5" t="n">
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
@@ -15495,11 +15581,11 @@
       <c r="T48" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U48" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="U48" s="7"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
+      <c r="W48" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -15532,36 +15618,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="U69" activeCellId="0" pane="topLeft" sqref="U69"/>
+      <selection activeCell="W69" activeCellId="0" pane="topLeft" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15667,7 +15754,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -15712,13 +15799,13 @@
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -16073,7 +16160,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -16577,7 +16664,7 @@
         <v>28</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
@@ -17466,6 +17553,12 @@
       <c r="U68" s="5" t="n">
         <v>54</v>
       </c>
+      <c r="V68" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="W68" s="5" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17504,11 +17597,11 @@
       <c r="T69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U69" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="U69" s="7"/>
       <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
+      <c r="W69" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="421" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="484" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="57">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -542,9 +542,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.9098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -699,41 +699,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W29" activeCellId="0" pane="topLeft" sqref="W29"/>
+      <selection activeCell="Y29" activeCellId="0" pane="topLeft" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1649,6 +1649,12 @@
       <c r="W28" s="5" t="n">
         <v>55</v>
       </c>
+      <c r="X28" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1693,11 +1699,13 @@
         <v>2</v>
       </c>
       <c r="V29" s="7"/>
-      <c r="W29" s="7" t="s">
+      <c r="W29" s="7"/>
+      <c r="X29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -1724,41 +1732,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W65" activeCellId="0" pane="topLeft" sqref="W65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="Y65" activeCellId="0" pane="topLeft" sqref="Y65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3629,6 +3637,12 @@
       <c r="W64" s="5" t="n">
         <v>63</v>
       </c>
+      <c r="X64" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y64" s="5" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3673,11 +3687,15 @@
       <c r="V65" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="W65" s="7" t="s">
+      <c r="W65" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X65" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
@@ -3709,39 +3727,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W69" activeCellId="0" pane="topLeft" sqref="W69"/>
+      <selection activeCell="Q69" activeCellId="0" pane="topLeft" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5634,6 +5652,12 @@
       <c r="W68" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="X68" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y68" s="5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5667,8 +5691,12 @@
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
+      <c r="P69" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="R69" s="7" t="n">
         <v>1</v>
       </c>
@@ -5680,11 +5708,13 @@
       <c r="V69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W69" s="7" t="s">
+      <c r="W69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
@@ -5715,40 +5745,44 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W69" activeCellId="0" pane="topLeft" sqref="W69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" topLeftCell="B53" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A53" activeCellId="0" pane="bottomLeft" sqref="A53"/>
+      <selection activeCell="Y69" activeCellId="0" pane="bottomRight" sqref="Y69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7558,6 +7592,12 @@
       <c r="W68" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="X68" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y68" s="5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -7600,17 +7640,17 @@
       <c r="R69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
       <c r="V69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W69" s="7" t="s">
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
@@ -7641,41 +7681,41 @@
   </sheetPr>
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W74" activeCellId="0" pane="topLeft" sqref="W74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="W76" activeCellId="0" pane="topLeft" sqref="W76"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9611,6 +9651,12 @@
       <c r="W73" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="X73" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y73" s="5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
@@ -9650,14 +9696,16 @@
       <c r="S74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7" t="s">
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y74" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -9690,42 +9738,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W71" activeCellId="0" pane="topLeft" sqref="W71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="W75" activeCellId="0" pane="topLeft" sqref="W75"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11589,6 +11637,12 @@
       <c r="W70" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="X70" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y70" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
@@ -11632,14 +11686,14 @@
       <c r="S71" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7" t="s">
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
@@ -11672,39 +11726,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W28" activeCellId="0" pane="topLeft" sqref="W28"/>
+      <selection activeCell="Y28" activeCellId="0" pane="topLeft" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12612,6 +12666,12 @@
       </c>
       <c r="W27" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -12655,11 +12715,15 @@
         <v>1</v>
       </c>
       <c r="V28" s="7"/>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -12686,43 +12750,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W45" activeCellId="0" pane="topLeft" sqref="W45"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="X39" activeCellId="0" pane="topLeft" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14138,6 +14202,12 @@
       <c r="W38" s="5" t="n">
         <v>28</v>
       </c>
+      <c r="X38" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y38" s="5" t="n">
+        <v>27</v>
+      </c>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -14179,11 +14249,11 @@
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="7" t="s">
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -14215,36 +14285,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W48" activeCellId="0" pane="topLeft" sqref="W48"/>
+      <selection activeCell="Y48" activeCellId="0" pane="topLeft" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15541,6 +15611,12 @@
       <c r="W47" s="5" t="n">
         <v>30</v>
       </c>
+      <c r="X47" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y47" s="5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
@@ -15581,13 +15657,15 @@
       <c r="T48" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7" t="s">
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
@@ -15618,37 +15696,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W69" activeCellId="0" pane="topLeft" sqref="W69"/>
+      <selection activeCell="X74" activeCellId="0" pane="topLeft" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -17559,6 +17637,12 @@
       <c r="W68" s="5" t="n">
         <v>47</v>
       </c>
+      <c r="X68" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y68" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17597,13 +17681,15 @@
       <c r="T69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7" t="s">
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="484" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="459" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -542,9 +542,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.9098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -699,41 +699,41 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Y29" activeCellId="0" pane="topLeft" sqref="Y29"/>
+      <selection activeCell="Z29" activeCellId="0" pane="topLeft" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1655,6 +1655,9 @@
       <c r="Y28" s="5" t="n">
         <v>42</v>
       </c>
+      <c r="Z28" s="5" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1703,10 +1706,10 @@
       <c r="X29" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Y29" s="7" t="s">
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
@@ -1733,40 +1736,40 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Y65" activeCellId="0" pane="topLeft" sqref="Y65"/>
+      <selection activeCell="Z65" activeCellId="0" pane="topLeft" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3643,6 +3646,9 @@
       <c r="Y64" s="5" t="n">
         <v>52</v>
       </c>
+      <c r="Z64" s="5" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3693,10 +3699,12 @@
       <c r="X65" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="Y65" s="7" t="s">
+      <c r="Y65" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
@@ -3727,39 +3735,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Q69" activeCellId="0" pane="topLeft" sqref="Q69"/>
+      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5658,6 +5666,9 @@
       <c r="Y68" s="5" t="n">
         <v>18</v>
       </c>
+      <c r="Z68" s="5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5712,10 +5723,12 @@
         <v>1</v>
       </c>
       <c r="X69" s="7"/>
-      <c r="Y69" s="7" t="s">
+      <c r="Y69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
@@ -5745,44 +5758,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B53" xSplit="1" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A53" activeCellId="0" pane="bottomLeft" sqref="A53"/>
-      <selection activeCell="Y69" activeCellId="0" pane="bottomRight" sqref="Y69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7598,6 +7607,9 @@
       <c r="Y68" s="5" t="n">
         <v>18</v>
       </c>
+      <c r="Z68" s="5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -7648,10 +7660,12 @@
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
-      <c r="Y69" s="7" t="s">
+      <c r="Y69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
@@ -7682,40 +7696,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W76" activeCellId="0" pane="topLeft" sqref="W76"/>
+      <selection activeCell="Z74" activeCellId="0" pane="topLeft" sqref="Z74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9657,6 +9671,9 @@
       <c r="Y73" s="5" t="n">
         <v>22</v>
       </c>
+      <c r="Z73" s="5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
@@ -9703,10 +9720,12 @@
       <c r="X74" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Y74" s="7" t="s">
+      <c r="Y74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
@@ -9739,41 +9758,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="W75" activeCellId="0" pane="topLeft" sqref="W75"/>
+      <selection activeCell="Z71" activeCellId="0" pane="topLeft" sqref="Z71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11643,6 +11662,9 @@
       <c r="Y70" s="5" t="n">
         <v>24</v>
       </c>
+      <c r="Z70" s="5" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
@@ -11691,10 +11713,12 @@
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
-      <c r="Y71" s="7" t="s">
+      <c r="Y71" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z71" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
@@ -11726,39 +11750,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Y28" activeCellId="0" pane="topLeft" sqref="Y28"/>
+      <selection activeCell="Z28" activeCellId="0" pane="topLeft" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12672,6 +12696,9 @@
       </c>
       <c r="Y27" s="5" t="n">
         <v>24</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -12721,10 +12748,10 @@
       <c r="X28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y28" s="7" t="s">
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
@@ -12751,42 +12778,42 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="X39" activeCellId="0" pane="topLeft" sqref="X39"/>
+      <selection activeCell="Y41" activeCellId="0" pane="topLeft" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14208,6 +14235,9 @@
       <c r="Y38" s="5" t="n">
         <v>27</v>
       </c>
+      <c r="Z38" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -14247,14 +14277,16 @@
       <c r="T39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7" t="s">
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
@@ -14285,36 +14317,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Y48" activeCellId="0" pane="topLeft" sqref="Y48"/>
+      <selection activeCell="Z48" activeCellId="0" pane="topLeft" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15617,6 +15649,9 @@
       <c r="Y47" s="5" t="n">
         <v>28</v>
       </c>
+      <c r="Z47" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
@@ -15663,10 +15698,12 @@
       <c r="X48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y48" s="7" t="s">
+      <c r="Y48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
@@ -15696,37 +15733,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="X74" activeCellId="0" pane="topLeft" sqref="X74"/>
+      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -17643,6 +17680,9 @@
       <c r="Y68" s="5" t="n">
         <v>29</v>
       </c>
+      <c r="Z68" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17687,10 +17727,12 @@
       <c r="X69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y69" s="7" t="s">
+      <c r="Y69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="459" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="424" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="57">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -542,9 +542,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.5058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.8039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -698,42 +698,42 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z29" activeCellId="0" pane="topLeft" sqref="Z29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AA30" activeCellId="0" pane="topLeft" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1658,6 +1658,9 @@
       <c r="Z28" s="5" t="n">
         <v>52</v>
       </c>
+      <c r="AA28" s="5" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1707,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="7" t="s">
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="10"/>
@@ -1735,41 +1738,41 @@
   </sheetPr>
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z65" activeCellId="0" pane="topLeft" sqref="Z65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AA67" activeCellId="0" pane="topLeft" sqref="AA67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3649,6 +3652,9 @@
       <c r="Z64" s="5" t="n">
         <v>62</v>
       </c>
+      <c r="AA64" s="5" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3702,10 +3708,12 @@
       <c r="Y65" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="Z65" s="7" t="s">
+      <c r="Z65" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="10"/>
@@ -3734,40 +3742,40 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5669,6 +5677,9 @@
       <c r="Z68" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="AA68" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5726,10 +5737,12 @@
       <c r="Y69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z69" s="7" t="s">
+      <c r="Z69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="10"/>
@@ -5759,39 +5772,39 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
+      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7610,6 +7623,9 @@
       <c r="Z68" s="5" t="n">
         <v>16</v>
       </c>
+      <c r="AA68" s="5" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -7663,10 +7679,12 @@
       <c r="Y69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z69" s="7" t="s">
+      <c r="Z69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="10"/>
@@ -7696,40 +7714,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z74" activeCellId="0" pane="topLeft" sqref="Z74"/>
+      <selection activeCell="AA74" activeCellId="0" pane="topLeft" sqref="AA74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9674,6 +9692,9 @@
       <c r="Z73" s="5" t="n">
         <v>18</v>
       </c>
+      <c r="AA73" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
@@ -9723,10 +9744,12 @@
       <c r="Y74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z74" s="7" t="s">
+      <c r="Z74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="10"/>
@@ -9758,41 +9781,41 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z71" activeCellId="0" pane="topLeft" sqref="Z71"/>
+      <selection activeCell="AA71" activeCellId="0" pane="topLeft" sqref="AA71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11665,6 +11688,9 @@
       <c r="Z70" s="5" t="n">
         <v>19</v>
       </c>
+      <c r="AA70" s="5" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="25"/>
@@ -11716,10 +11742,12 @@
       <c r="Y71" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="Z71" s="7" t="s">
+      <c r="Z71" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA71" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="10"/>
@@ -11750,39 +11778,39 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z28" activeCellId="0" pane="topLeft" sqref="Z28"/>
+      <selection activeCell="AA28" activeCellId="0" pane="topLeft" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12699,6 +12727,9 @@
       </c>
       <c r="Z27" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -12749,10 +12780,12 @@
         <v>1</v>
       </c>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7" t="s">
+      <c r="Z28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="10"/>
@@ -12777,43 +12810,43 @@
   </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Y41" activeCellId="0" pane="topLeft" sqref="Y41"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AA39" activeCellId="0" pane="topLeft" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14238,6 +14271,9 @@
       <c r="Z38" s="5" t="n">
         <v>24</v>
       </c>
+      <c r="AA38" s="5" t="n">
+        <v>40</v>
+      </c>
       <c r="AF38" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -14284,10 +14320,12 @@
       <c r="Y39" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Z39" s="7" t="s">
+      <c r="Z39" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="10"/>
@@ -14317,36 +14355,36 @@
   <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z48" activeCellId="0" pane="topLeft" sqref="Z48"/>
+      <selection activeCell="Y52" activeCellId="0" pane="topLeft" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15652,6 +15690,9 @@
       <c r="Z47" s="5" t="n">
         <v>26</v>
       </c>
+      <c r="AA47" s="5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="25"/>
@@ -15701,10 +15742,10 @@
       <c r="Y48" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Z48" s="7" t="s">
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="10"/>
@@ -15733,37 +15774,37 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
+      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -17683,6 +17724,9 @@
       <c r="Z68" s="5" t="n">
         <v>27</v>
       </c>
+      <c r="AA68" s="5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17730,10 +17774,12 @@
       <c r="Y69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z69" s="7" t="s">
+      <c r="Z69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="10"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="424" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="613" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="59">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -168,13 +168,19 @@
     <t>05</t>
   </si>
   <si>
-    <t>?</t>
+    <t>T1-2014</t>
   </si>
   <si>
     <t>'08</t>
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>TET TET TET</t>
@@ -542,9 +548,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.8039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.7294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -696,44 +702,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA30" activeCellId="0" pane="topLeft" sqref="AA30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AD29" activeCellId="0" pane="topLeft" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1661,6 +1667,21 @@
       <c r="AA28" s="5" t="n">
         <v>44</v>
       </c>
+      <c r="AB28" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD28" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE28" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" s="5" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="25"/>
@@ -1711,14 +1732,70 @@
       </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="7" t="s">
+      <c r="AA29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="31">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
+      <c r="B31" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="A32" s="25"/>
+      <c r="B32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1736,43 +1813,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA67" activeCellId="0" pane="topLeft" sqref="AA67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2539,7 +2616,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -3655,6 +3732,21 @@
       <c r="AA64" s="5" t="n">
         <v>46</v>
       </c>
+      <c r="AB64" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC64" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD64" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="AE64" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF64" s="5" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="25"/>
@@ -3711,14 +3803,78 @@
       <c r="Z65" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="AA65" s="7" t="s">
+      <c r="AA65" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB65" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC65" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="67">
+      <c r="A67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
+      <c r="B67" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+      <c r="A68" s="25"/>
+      <c r="B68" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3740,42 +3896,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AC69" activeCellId="0" pane="topLeft" sqref="AC69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5680,6 +5836,21 @@
       <c r="AA68" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="AB68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC68" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD68" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF68" s="5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -5740,14 +5911,68 @@
       <c r="Z69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA69" s="7" t="s">
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="71">
+      <c r="A71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
+      <c r="B71" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="A72" s="25"/>
+      <c r="B72" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5769,42 +5994,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AF70" activeCellId="0" pane="topLeft" sqref="AF70"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7626,6 +7851,21 @@
       <c r="AA68" s="5" t="n">
         <v>23</v>
       </c>
+      <c r="AB68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC68" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD68" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF68" s="5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -7682,14 +7922,74 @@
       <c r="Z69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA69" s="7" t="s">
+      <c r="AA69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF69" s="13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="71">
+      <c r="A71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
+      <c r="B71" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="A72" s="25"/>
+      <c r="B72" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7711,43 +8011,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA74" activeCellId="0" pane="topLeft" sqref="AA74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="AD74" activeCellId="0" pane="topLeft" sqref="AD74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7888,13 +8188,13 @@
         <v>5</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -8571,7 +8871,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -9695,6 +9995,21 @@
       <c r="AA73" s="5" t="n">
         <v>24</v>
       </c>
+      <c r="AB73" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC73" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD73" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF73" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="25"/>
@@ -9747,14 +10062,72 @@
       <c r="Z74" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA74" s="7" t="s">
+      <c r="AA74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="76">
+      <c r="A76" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
+      <c r="B76" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+      <c r="A77" s="25"/>
+      <c r="B77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9778,44 +10151,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA71" activeCellId="0" pane="topLeft" sqref="AA71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="D74" activeCellId="0" pane="topLeft" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9954,7 +10327,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -11375,7 +11748,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD64" s="5" t="n">
         <v>14</v>
@@ -11690,6 +12063,21 @@
       </c>
       <c r="AA70" s="5" t="n">
         <v>39</v>
+      </c>
+      <c r="AB70" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC70" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD70" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF70" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
@@ -11745,14 +12133,74 @@
       <c r="Z71" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="AA71" s="7" t="s">
+      <c r="AA71" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB71" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="73">
+      <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
+      <c r="B73" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+      <c r="A74" s="25"/>
+      <c r="B74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11775,42 +12223,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA28" activeCellId="0" pane="topLeft" sqref="AA28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="P7" activeCellId="0" pane="topLeft" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12147,11 +12595,11 @@
       <c r="N13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>32</v>
+      <c r="O13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="Q13" s="7" t="n">
         <v>1</v>
@@ -12362,7 +12810,7 @@
         <v>51</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O21" s="5" t="n">
         <v>26</v>
@@ -12730,6 +13178,21 @@
       </c>
       <c r="AA27" s="5" t="n">
         <v>40</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF27" s="5" t="n">
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -12783,14 +13246,68 @@
       <c r="Z28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA28" s="7" t="s">
-        <v>47</v>
+      <c r="AA28" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
+      <c r="AE28" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AF28" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="30">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="A31" s="25"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12808,45 +13325,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA39" activeCellId="0" pane="topLeft" sqref="AA39"/>
+      <selection activeCell="N47" activeCellId="0" pane="topLeft" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14274,7 +14791,21 @@
       <c r="AA38" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="AF38" s="5"/>
+      <c r="AB38" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC38" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD38" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE38" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF38" s="5" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="25"/>
@@ -14323,14 +14854,71 @@
       <c r="Z39" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="AA39" s="7" t="s">
+      <c r="AA39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="41">
+      <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
+      <c r="B41" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="A42" s="25"/>
+      <c r="B42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14352,39 +14940,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF48"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="Y52" activeCellId="0" pane="topLeft" sqref="Y52"/>
+      <selection activeCell="D51" activeCellId="0" pane="topLeft" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14780,7 +15368,7 @@
         <v>28</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -15692,6 +16280,21 @@
       </c>
       <c r="AA47" s="5" t="n">
         <v>42</v>
+      </c>
+      <c r="AB47" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC47" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD47" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE47" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF47" s="5" t="n">
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
@@ -15743,14 +16346,76 @@
         <v>2</v>
       </c>
       <c r="Z48" s="7"/>
-      <c r="AA48" s="7" t="s">
+      <c r="AA48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="50">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
+      <c r="B50" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="A51" s="25"/>
+      <c r="B51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15771,40 +16436,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
+      <selection activeCell="D72" activeCellId="0" pane="topLeft" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -15910,7 +16575,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -15955,13 +16620,13 @@
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
@@ -16316,7 +16981,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -16820,7 +17485,7 @@
         <v>28</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
@@ -17727,6 +18392,21 @@
       <c r="AA68" s="5" t="n">
         <v>42</v>
       </c>
+      <c r="AB68" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC68" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD68" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE68" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF68" s="5" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="25"/>
@@ -17777,14 +18457,72 @@
       <c r="Z69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA69" s="7" t="s">
+      <c r="AA69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="71">
+      <c r="A71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
+      <c r="B71" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="A72" s="25"/>
+      <c r="B72" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="59">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -171,6 +171,9 @@
     <t>T1-2014</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>'08</t>
   </si>
   <si>
@@ -178,9 +181,6 @@
   </si>
   <si>
     <t>02</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>TET TET TET</t>
@@ -548,9 +548,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.7294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.0352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -705,41 +705,41 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AD29" activeCellId="0" pane="topLeft" sqref="AD29"/>
+      <selection activeCell="F32" activeCellId="0" pane="topLeft" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1756,6 +1756,12 @@
       <c r="D31" s="5" t="n">
         <v>60</v>
       </c>
+      <c r="E31" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>44</v>
+      </c>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
     </row>
@@ -1765,11 +1771,11 @@
         <v>1</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1815,41 +1821,41 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="G73" activeCellId="0" pane="topLeft" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3833,6 +3839,12 @@
       <c r="D67" s="5" t="n">
         <v>69</v>
       </c>
+      <c r="E67" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>74</v>
+      </c>
       <c r="S67" s="27"/>
       <c r="T67" s="27"/>
     </row>
@@ -3844,11 +3856,13 @@
       <c r="C68" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -3899,39 +3913,39 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AC69" activeCellId="0" pane="topLeft" sqref="AC69"/>
+      <selection activeCell="F72" activeCellId="0" pane="topLeft" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5935,6 +5949,12 @@
       <c r="D71" s="5" t="n">
         <v>22</v>
       </c>
+      <c r="E71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
@@ -5946,7 +5966,9 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
@@ -5997,39 +6019,39 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AF70" activeCellId="0" pane="topLeft" sqref="AF70"/>
+      <selection activeCell="F72" activeCellId="0" pane="topLeft" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7528,7 +7550,7 @@
         <v>37</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE62" s="5" t="n">
         <v>16</v>
@@ -7822,7 +7844,7 @@
         <v>47</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S68" s="27" t="n">
         <v>13</v>
@@ -7852,7 +7874,7 @@
         <v>23</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC68" s="5" t="n">
         <v>14</v>
@@ -7861,7 +7883,7 @@
         <v>27</v>
       </c>
       <c r="AE68" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF68" s="5" t="n">
         <v>18</v>
@@ -7948,6 +7970,12 @@
       <c r="D71" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="E71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
@@ -7959,11 +7987,13 @@
       <c r="C72" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
@@ -8014,40 +8044,40 @@
   <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="AD74" activeCellId="0" pane="topLeft" sqref="AD74"/>
+      <selection activeCell="F77" activeCellId="0" pane="topLeft" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9781,7 +9811,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -9942,7 +9972,7 @@
         <v>42</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>59</v>
@@ -10086,6 +10116,12 @@
       <c r="D76" s="5" t="n">
         <v>29</v>
       </c>
+      <c r="E76" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
     </row>
@@ -10097,11 +10133,15 @@
       <c r="C77" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="D77" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
@@ -10154,41 +10194,41 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="D74" activeCellId="0" pane="topLeft" sqref="D74"/>
+      <selection activeCell="F74" activeCellId="0" pane="topLeft" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11856,7 +11896,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -12156,10 +12196,16 @@
         <v>46</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>32</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>26</v>
       </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
@@ -12170,11 +12216,15 @@
         <v>1</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="D74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -12226,39 +12276,39 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="P7" activeCellId="0" pane="topLeft" sqref="P7"/>
+      <selection activeCell="F31" activeCellId="0" pane="topLeft" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13270,6 +13320,12 @@
       <c r="D30" s="5" t="n">
         <v>35</v>
       </c>
+      <c r="E30" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>31</v>
+      </c>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
     </row>
@@ -13277,11 +13333,15 @@
       <c r="A31" s="25"/>
       <c r="B31" s="7"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -13328,42 +13388,42 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="N47" activeCellId="0" pane="topLeft" sqref="N47"/>
+      <selection activeCell="F42" activeCellId="0" pane="topLeft" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14878,6 +14938,12 @@
       <c r="D41" s="5" t="n">
         <v>36</v>
       </c>
+      <c r="E41" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>36</v>
+      </c>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
       <c r="AF41" s="5"/>
@@ -14888,11 +14954,11 @@
         <v>1</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -14943,36 +15009,36 @@
   <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="D51" activeCellId="0" pane="topLeft" sqref="D51"/>
+      <selection activeCell="F51" activeCellId="0" pane="topLeft" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -16374,6 +16440,12 @@
       <c r="D50" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="E50" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
     </row>
@@ -16385,11 +16457,11 @@
       <c r="C51" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -16439,37 +16511,37 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="D72" activeCellId="0" pane="topLeft" sqref="D72"/>
+      <selection activeCell="F72" activeCellId="0" pane="topLeft" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -18481,6 +18553,12 @@
       <c r="D71" s="5" t="n">
         <v>57</v>
       </c>
+      <c r="E71" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
@@ -18492,11 +18570,13 @@
       <c r="C72" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="613" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="429" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="59">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -548,9 +548,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.0352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.6509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -705,41 +703,40 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F32" activeCellId="0" pane="topLeft" sqref="F32"/>
+      <selection activeCell="I32" activeCellId="0" pane="topLeft" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.21176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1762,6 +1759,12 @@
       <c r="F31" s="5" t="n">
         <v>44</v>
       </c>
+      <c r="G31" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>54</v>
+      </c>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
     </row>
@@ -1770,15 +1773,15 @@
       <c r="B32" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="7"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="7"/>
@@ -1821,41 +1824,40 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="G73" activeCellId="0" pane="topLeft" sqref="G73"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="I71" activeCellId="0" pane="topLeft" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3845,6 +3847,9 @@
       <c r="F67" s="5" t="n">
         <v>74</v>
       </c>
+      <c r="H67" s="5" t="n">
+        <v>77</v>
+      </c>
       <c r="S67" s="27"/>
       <c r="T67" s="27"/>
     </row>
@@ -3860,12 +3865,14 @@
       <c r="E68" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" s="7"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="I68" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="7"/>
@@ -3913,39 +3920,38 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F72" activeCellId="0" pane="topLeft" sqref="F72"/>
+      <selection activeCell="I73" activeCellId="0" pane="topLeft" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.53333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5955,6 +5961,15 @@
       <c r="F71" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="G71" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>37</v>
+      </c>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
@@ -5966,12 +5981,14 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="10" t="s">
-        <v>48</v>
+      <c r="F72" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
+      <c r="I72" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="7"/>
@@ -6019,39 +6036,38 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F72" activeCellId="0" pane="topLeft" sqref="F72"/>
+      <selection activeCell="I72" activeCellId="0" pane="topLeft" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.55686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7976,6 +7992,15 @@
       <c r="F71" s="5" t="n">
         <v>24</v>
       </c>
+      <c r="G71" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>38</v>
+      </c>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
@@ -7991,12 +8016,16 @@
       <c r="E72" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="7"/>
@@ -8044,40 +8073,39 @@
   <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F77" activeCellId="0" pane="topLeft" sqref="F77"/>
+      <selection activeCell="H77" activeCellId="0" pane="topLeft" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.37647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10122,6 +10150,15 @@
       <c r="F76" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="G76" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I76" s="5" t="n">
+        <v>43</v>
+      </c>
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
     </row>
@@ -10139,12 +10176,12 @@
       <c r="E77" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="F77" s="10"/>
       <c r="G77" s="7"/>
       <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
+      <c r="I77" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
       <c r="L77" s="7"/>
@@ -10194,41 +10231,40 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F74" activeCellId="0" pane="topLeft" sqref="F74"/>
+      <selection activeCell="I74" activeCellId="0" pane="topLeft" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="6.21176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12207,6 +12243,15 @@
       <c r="F73" s="5" t="n">
         <v>26</v>
       </c>
+      <c r="G73" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>44</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
@@ -12222,12 +12267,14 @@
       <c r="E74" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="10"/>
+      <c r="G74" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
       <c r="L74" s="7"/>
@@ -12276,39 +12323,38 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F31" activeCellId="0" pane="topLeft" sqref="F31"/>
+      <selection activeCell="I31" activeCellId="0" pane="topLeft" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.87058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -13326,6 +13372,15 @@
       <c r="F30" s="5" t="n">
         <v>31</v>
       </c>
+      <c r="G30" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>52</v>
+      </c>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
     </row>
@@ -13339,12 +13394,14 @@
       <c r="E31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="7"/>
@@ -13388,42 +13445,41 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="F42" activeCellId="0" pane="topLeft" sqref="F42"/>
+      <selection activeCell="H42" activeCellId="0" pane="topLeft" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.37254901960784"/>
+    <col co